--- a/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
@@ -1673,25 +1673,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03718726709485054</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1484325081110001</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3242944777011871</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1928400038758829</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>23.5426589846611</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04348986968398094</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1628811657428741</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3928211331367493</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2085422491582484</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.15482604503632</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,25 +2808,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.986281156539917</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7702690362930298</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4874525368213654</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9931168896660236</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>28.33634912967682</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.9350823760032654</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.6784491539001465</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4623323678970337</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.9669965749697697</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.28204321861267</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,25 +3940,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3479743599891663</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4693678915500641</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2395176142454147</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5898935158053242</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>19.84585970640182</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.360662460327148</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.044751048088074</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.5255806446075439</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.166474371911852</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>34.84385013580322</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4964,25 +5072,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1621553152799606</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2402812242507935</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1223410218954086</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4026851316847452</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>9.672402590513229</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.4414642155170441</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.5384151339530945</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2443399280309677</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.664427735361073</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>19.19414699077606</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,25 +6202,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1071680337190628</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2428137212991714</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.362237691879272</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3273652909504348</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>42.76716411113739</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1206065267324448</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.271360456943512</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>2.157998561859131</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3472845040200394</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>48.83266389369965</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7152,25 +7332,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>38156.5078125</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>158.7750854492188</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>667.9041748046875</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>195.3369084748195</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>199.2831945419312</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2766059041023254</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4263855814933777</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>2.452429056167603</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5259333646977775</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>76.1967658996582</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8246,25 +8462,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.486057281494141</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.339995145797729</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.361424446105957</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.118031463763969</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>186.4799737930298</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>4152.24951171875</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>62.48566436767578</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>265.3054504394531</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>64.43795086529948</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>199.968409538269</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9340,25 +9592,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.525421619415283</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8857794404029846</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.9164117574691772</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.235079600436864</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>37.0271772146225</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.173657655715942</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.6971996426582336</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.8035257458686829</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.083354815245653</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>30.83091974258423</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10434,25 +10722,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.13938307762146</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6644401550292969</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.8390722870826721</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.067418885733928</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>28.92742455005646</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.556334018707275</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.8494915366172791</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.029567003250122</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.247531169433163</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>35.8625739812851</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11528,25 +11852,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.363634347915649</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7354475855827332</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5621376633644104</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.167747553161919</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.03950119018555</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.9915982484817505</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.5722053647041321</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4706364870071411</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.9957902632993307</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.73368847370148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12442,13 +12802,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04352724179625511</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1655806452035904</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3727883398532867</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2086318331325666</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.654137134552</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -13536,25 +13914,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05529194325208664</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1779393255710602</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.645959734916687</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2351423893135532</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.98350167274475</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05873339250683784</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1873311847448349</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.663127064704895</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2423497318068205</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>32.20261633396149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14450,13 +14864,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05489815026521683</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1838959455490112</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5261064767837524</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2343035430061117</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.74494302272797</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -15364,13 +15796,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.0854189544916153</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2422985583543777</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5877055525779724</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.292265212592288</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>42.84078180789948</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -16278,13 +16728,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2418987303972244</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2896324098110199</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1488513797521591</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4918320144086031</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>11.29037067294121</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -17192,13 +17660,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.5628780126571655</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5137189626693726</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3142221868038177</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.7502519661134954</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>19.65747475624084</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -18106,13 +18592,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3779879510402679</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3578169643878937</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2776361703872681</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6148072470622544</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>15.98211228847504</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -19200,25 +19704,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.0465318076312542</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.165679395198822</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5309618711471558</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2157123260994934</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>27.87036597728729</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05611444264650345</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1799188852310181</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4359229803085327</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2368848721351861</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>30.4032176733017</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20294,25 +20834,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3299940228462219</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4344190657138824</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1984438300132751</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5744510621856503</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>15.83809852600098</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1683845669031143</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3028962016105652</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1366946846246719</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4103468860648443</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>12.01892718672752</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -21389,25 +21965,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3522278666496277</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4782774448394775</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2797504365444183</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5934878824791856</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>21.15559726953506</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.3979630470275879</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3702901899814606</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2869383990764618</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.6308431239441291</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>16.39063060283661</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -22484,25 +23096,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3776086568832397</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3923802375793457</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2540732324123383</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6144987037278759</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>16.0380482673645</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2972375452518463</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4127753078937531</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2263054847717285</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5451949607726086</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>17.44142174720764</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -23581,25 +24229,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05184994637966156</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1807412207126617</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4590275287628174</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2277058329943736</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>27.21382975578308</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04549043625593185</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1674795895814896</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3709402084350586</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2132848711370121</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.80674588680267</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24679,25 +25363,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.07934484630823135</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2162738442420959</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.8518072366714478</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2816821725069433</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>34.98228192329407</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.07019833475351334</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2067485451698303</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.6797717809677124</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2649496834372771</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>35.30507683753967</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25775,25 +26495,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.0511602871119976</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.178598627448082</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5316680669784546</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.226186399042908</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>29.80577945709229</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.0719616562128067</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2079687863588333</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.6796554923057556</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.268256698355897</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>32.84400105476379</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03302307327921956</v>
+        <v>0.03302307327921955</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1579703957948224</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2369622940602664</v>
+        <v>0.2369622940602663</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1817225172597484</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>27.26329154366782</v>
+        <v>27.26329154366778</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03929773636754539</v>
+        <v>0.03929773636754546</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1713296342870219</v>
+        <v>0.171329634287022</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2439569531004754</v>
+        <v>0.2439569531004755</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1982365666761443</v>
+        <v>0.1982365666761444</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>28.74078468498734</v>
+        <v>28.74078468498735</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02018381594139144</v>
+        <v>0.02018381594139145</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1097298645089761</v>
@@ -929,10 +929,10 @@
         <v>0.2224409960233904</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1420697573074278</v>
+        <v>0.1420697573074279</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>17.85202269960902</v>
+        <v>17.85202269960903</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -1334,23 +1334,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02899742893793442</v>
+        <v>0.02648134034720029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1158877908769344</v>
+        <v>0.1271830241208495</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1786411885736369</v>
+        <v>0.1859582659339881</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1702863145937877</v>
+        <v>0.1627308832004555</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>18.48722212781966</v>
+        <v>18.52685519684651</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.0333665338176365</v>
+        <v>0.03345789032298043</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1425063839714992</v>
+        <v>0.1426946422448748</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2272057117346276</v>
+        <v>0.2245717760585474</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.1826650864769634</v>
+        <v>0.1829149811332588</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>22.89783983613718</v>
+        <v>22.8667755647839</v>
       </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
@@ -1621,25 +1621,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04651017114520073</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1710530072450638</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3842525482177734</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.215662169017194</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.36231780052185</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04170917347073555</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1607918441295624</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3739625811576843</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2042282386711876</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>24.91679042577744</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1647,25 +1683,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02544491365551949</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1413788795471191</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2042041122913361</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.159514618939831</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.03249323368073</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02119104936718941</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1270034313201904</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1849002838134766</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1455714579414158</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.19453930854797</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1905,19 +1977,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6.118568609413529e-07</v>
+        <v>6.118568609350986e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006199100350031988</v>
+        <v>0.0006199100350023499</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.000308125811579329</v>
+        <v>0.0003081258115772942</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0007822127977355989</v>
+        <v>0.0007822127977316011</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.03079814301166589</v>
+        <v>0.03079814301146308</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -1935,19 +2007,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>4.456985851343039e-07</v>
+        <v>4.456985851372211e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0005302893508921179</v>
+        <v>0.0005302893508958317</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002629039582052068</v>
+        <v>0.0002629039582065132</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0006676066095645727</v>
+        <v>0.0006676066095667576</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02628052423629918</v>
+        <v>0.02628052423642991</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2473,19 +2545,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5039615166279517</v>
+        <v>0.4765970559170483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5825588146162108</v>
+        <v>0.5673471587127125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2947098167356187</v>
+        <v>0.2824850641614944</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7099024697998675</v>
+        <v>0.6903600914863549</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>27.47814215252216</v>
+        <v>26.84383335340179</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -2535,19 +2607,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.340466325030952</v>
+        <v>1.33652438809891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.078517258347205</v>
+        <v>1.076695646235616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4462358831309657</v>
+        <v>0.4453853319961165</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.15778509449334</v>
+        <v>1.156081479870216</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>51.88050526710454</v>
+        <v>51.800750654774</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -2565,19 +2637,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>2.245371885331639</v>
+        <v>2.293169646206633</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.39166177858064</v>
+        <v>1.408365102111056</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.5457089499788504</v>
+        <v>0.5504669150247723</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.498456500980806</v>
+        <v>1.514321513486034</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>72.72196887706464</v>
+        <v>73.91996114557512</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -2756,25 +2828,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3594006299972534</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3615165650844574</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2724275588989258</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5995003169284011</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>16.1726713180542</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.3742916584014893</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3824870586395264</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2828450202941895</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.6117938038273102</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>16.91469252109528</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2782,25 +2890,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1556165814399719</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3215300738811493</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1350361853837967</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.394482675715895</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>12.44758889079094</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1209988966584206</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2383505553007126</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1057026013731956</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3478489566728936</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>9.36395600438118</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3037,19 +3181,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.663596121372567e-07</v>
+        <v>2.663596121388047e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0004273137947903557</v>
+        <v>0.0004273137947934234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001985783687965726</v>
+        <v>0.0001985783687981264</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.000516100389592235</v>
+        <v>0.0005161003895937347</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01985258226273263</v>
+        <v>0.01985258226288783</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3067,19 +3211,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.235244822319689e-07</v>
+        <v>2.235244822285724e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0003825669571962515</v>
+        <v>0.0003825669571935753</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001711021235421391</v>
+        <v>0.0001711021235415052</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0004727837584265865</v>
+        <v>0.0004727837584229944</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01710665990873451</v>
+        <v>0.01710665990867106</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3217,16 +3361,16 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.6282055539815865</v>
+        <v>0.6282055539815866</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.5041173612568317</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.2598947945712076</v>
+        <v>0.2598947945712077</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.7925941924980188</v>
+        <v>0.7925941924980189</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>23.9226422621479</v>
@@ -3667,19 +3811,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.12132429439879</v>
+        <v>1.130187021316162</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9745900440512991</v>
+        <v>0.9798924726593203</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3798327632368578</v>
+        <v>0.3816696491177609</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.05892600987925</v>
+        <v>1.063102545061464</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>46.21622321422566</v>
+        <v>46.45058228045361</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -3697,19 +3841,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.231844086885739</v>
+        <v>1.219008911758779</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.9996878435868208</v>
+        <v>0.9902779867467271</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.369586642261266</v>
+        <v>0.365819636613811</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.109884717835929</v>
+        <v>1.104087365999077</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>46.12322273475998</v>
+        <v>45.61323400569827</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -3888,25 +4032,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2672915160655975</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3166978061199188</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2114652395248413</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.517002433326573</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.587985932827</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2764557003974915</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3271864354610443</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2125011682510376</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5257905480298134</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.9766052365303</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3914,25 +4094,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0706561803817749</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2240268439054489</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08277413249015808</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2658123029165033</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.132942765951157</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05207492411136627</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1811929792165756</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.06612375378608704</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2281993078678511</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.561656296253204</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4169,19 +4385,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.435102891753212e-07</v>
+        <v>8.43510289174328e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0008030629392803798</v>
+        <v>0.0008030629392802544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0003048749733746813</v>
+        <v>0.000304874973374408</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0009184281622289907</v>
+        <v>0.00091842816222845</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.03049129166483532</v>
+        <v>0.03049129166480794</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4199,19 +4415,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>8.587424733667953e-07</v>
+        <v>8.587424733664748e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.000787917530060853</v>
+        <v>0.0007879175300604186</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002987845778321433</v>
+        <v>0.0002987845778322083</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0009266835885925655</v>
+        <v>0.0009266835885923926</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02988259420151187</v>
+        <v>0.02988259420151843</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4322,7 +4538,7 @@
         <v>0.3661139825168903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4638886361064877</v>
+        <v>0.4638886361064878</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1831641552162333</v>
@@ -4767,19 +4983,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.5191368958572253</v>
+        <v>0.5158302791797235</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.6168526513545045</v>
+        <v>0.6141215804245472</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.2385340988664625</v>
+        <v>0.237528719038459</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.7205115515085274</v>
+        <v>0.7182132546672495</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>26.18474187325831</v>
+        <v>26.05723230993896</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -4799,19 +5015,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.787211848199139</v>
+        <v>1.786285308644121</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.235335984542263</v>
+        <v>1.235210167657418</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4507588252086226</v>
+        <v>0.4507092326976492</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.336866428705254</v>
+        <v>1.336519849700752</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>59.65394535266573</v>
+        <v>59.64097657545121</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -4829,19 +5045,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.360943697149047</v>
+        <v>1.371092407496693</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.080581932532347</v>
+        <v>1.084320767156867</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3897704528097735</v>
+        <v>0.3910767149062844</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.166594915619405</v>
+        <v>1.170936551439356</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>49.14677524617125</v>
+        <v>49.36058583353599</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -5020,25 +5236,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1766657680273056</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2852470874786377</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.135214701294899</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4203162714282015</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>11.28216907382011</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1794408708810806</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2694877684116364</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1335837692022324</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4236046162178602</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.69232374429703</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -5046,25 +5298,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04539560899138451</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1714261025190353</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06076021119952202</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2130624532651976</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.076840311288834</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05346734076738358</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.176664263010025</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.06159707903862</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2312300602590061</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.257665902376175</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -5299,19 +5587,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05366659031406029</v>
+        <v>0.05366659031406032</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1581235911667858</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.814795422212075</v>
+        <v>1.814795422212077</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2316605065911328</v>
+        <v>0.2316605065911329</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>32.74590146894622</v>
+        <v>32.74590146894623</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -5329,7 +5617,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05400576868413561</v>
+        <v>0.0540057686841356</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1511754601520262</v>
@@ -5482,7 +5770,7 @@
         <v>0.05444649845700585</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1555093205280427</v>
+        <v>0.1555093205280426</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>1.936246500333661</v>
@@ -5867,19 +6155,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08511343135953318</v>
+        <v>0.08538710575949857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1900935697191863</v>
+        <v>0.1912141866905698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.269567158657226</v>
+        <v>2.271754969595371</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2917420630617621</v>
+        <v>0.292210721499911</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>35.30199045929791</v>
+        <v>35.46786994096438</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -5959,19 +6247,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06712415298233253</v>
+        <v>0.06706069747308512</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1813370111502995</v>
+        <v>0.1810838931573636</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>1.957747739093612</v>
+        <v>1.957311971985531</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2590832935222426</v>
+        <v>0.2589608029665592</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>35.34245765630533</v>
+        <v>35.30525793216812</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -6150,25 +6438,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0901862308382988</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2337883114814758</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.131545305252075</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3003102243319378</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>42.45553910732269</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.07827994972467422</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2030032724142075</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>2.04146409034729</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2797855423796488</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>38.18212747573853</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6176,25 +6500,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06688712537288666</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1679933667182922</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.110226392745972</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.258625453837952</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.82866072654724</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05917875468730927</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.155781015753746</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>1.062729716300964</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2432668384455828</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>28.9741575717926</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6429,7 +6789,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07541253140229111</v>
+        <v>0.07541253140229112</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2131303619045989</v>
@@ -6609,7 +6969,7 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.08823095547064817</v>
+        <v>0.08823095547064816</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.2067302266125566</v>
@@ -6997,19 +7357,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1070836558641875</v>
+        <v>0.1046527782347816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.240670460803898</v>
+        <v>0.2379427282109579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.535415129523855</v>
+        <v>2.512907842984677</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3272363914117553</v>
+        <v>0.3235008164360355</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>44.22909601090716</v>
+        <v>43.9663975794243</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -7059,19 +7419,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1014179835274328</v>
+        <v>0.1014110336418449</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2211689204828235</v>
+        <v>0.2211999457259711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.526785921830155</v>
+        <v>2.526825536965501</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3184619027881243</v>
+        <v>0.318450990957549</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>39.61463509114122</v>
+        <v>39.62033595918712</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -7089,19 +7449,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.08233383726829556</v>
+        <v>0.08236045251569847</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2056809433353154</v>
+        <v>0.2057062337647722</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>2.226034692959246</v>
+        <v>2.225956709840673</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.286938734346368</v>
+        <v>0.2869851085260322</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>38.61423956798505</v>
+        <v>38.61877277178428</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -7280,25 +7640,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1049892380833626</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2350566983222961</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.45207953453064</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3240204284969739</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>44.07783150672913</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.104811429977417</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2369753271341324</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>2.366214513778687</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3237459343025283</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>44.67587769031525</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7306,25 +7702,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1101221889257431</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2443219125270844</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.272245526313782</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3318466346458001</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>43.16847324371338</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1097675859928131</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2499699592590332</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>1.189112186431885</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.331311916466663</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>40.9160852432251</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7559,7 +7991,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06717594464735671</v>
+        <v>0.06717594464735673</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2021563578971377</v>
@@ -7568,7 +8000,7 @@
         <v>1.961348933574598</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2591832260146414</v>
+        <v>0.2591832260146415</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>39.26785737171992</v>
@@ -7589,10 +8021,10 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06743133069014495</v>
+        <v>0.06743133069014497</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2035779431588938</v>
+        <v>0.2035779431588939</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>1.971283751612623</v>
@@ -7709,7 +8141,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09414559948549851</v>
+        <v>0.09414559948549853</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2460662265653289</v>
@@ -7718,10 +8150,10 @@
         <v>2.327800914828909</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.3068315490387168</v>
+        <v>0.3068315490387169</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>44.62931809031825</v>
+        <v>44.62931809031824</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -8123,23 +8555,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0805937265558324</v>
+        <v>0.0817254222405274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2178985373488118</v>
+        <v>0.2177175213326845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.21350342433801</v>
+        <v>2.269134451493299</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2838903424842634</v>
+        <v>0.2858765856808273</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>40.6414058627903</v>
+        <v>40.36437894354529</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -8410,25 +8842,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0864381343126297</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2286201268434525</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.270654916763306</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2940036297609771</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>41.97502136230469</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.07972438633441925</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2190291583538055</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>2.205958366394043</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2823550713807337</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>40.88734090328217</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8436,25 +8904,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1298612654209137</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2917447984218597</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.301429867744446</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3603626859441939</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>44.88885104656219</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.09761478751897812</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2511629164218903</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>1.144468903541565</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3124336529872833</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>41.31686091423035</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8689,16 +9193,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6264992793819177</v>
+        <v>0.6264992793819176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4045412171545908</v>
+        <v>0.4045412171545907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5853643097759654</v>
+        <v>0.5853643097759653</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7915170745991004</v>
+        <v>0.7915170745991003</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>20.60411308926322</v>
@@ -8725,7 +9229,7 @@
         <v>0.3937141513635121</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6020534974525553</v>
+        <v>0.6020534974525554</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.8102664814930872</v>
@@ -8872,7 +9376,7 @@
         <v>0.7086187645787457</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.4016409319011146</v>
+        <v>0.4016409319011145</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.649232791847555</v>
@@ -9253,23 +9757,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 200, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7298622622467025</v>
+        <v>0.7294670706397347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4201579292435565</v>
+        <v>0.4211745069573905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6301227755767259</v>
+        <v>0.6314808947258056</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8543197658059319</v>
+        <v>0.8540884442724505</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>20.99463831662788</v>
+        <v>21.03175718000843</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -9283,23 +9787,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.6464494274888173</v>
+        <v>0.6638448023559909</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.3713756626793549</v>
+        <v>0.3805710146768843</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.5922125570681994</v>
+        <v>0.5975763880702648</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.8040207879705706</v>
+        <v>0.8147667165244239</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>18.81918061526841</v>
+        <v>19.09663913912494</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -9319,19 +9823,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6847744900193312</v>
+        <v>0.6799085100101209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4120990309662536</v>
+        <v>0.4090078156224362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6177406593733618</v>
+        <v>0.6157152226837466</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8275110210863243</v>
+        <v>0.8245656493027834</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.78743299029464</v>
+        <v>20.66775332750338</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -9540,25 +10044,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.8284599781036377</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5402089357376099</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6941059827804565</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9101977686764771</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.39525628089905</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>1.428478837013245</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>1.049854636192322</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.7309330105781555</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>1.195189874878985</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>55.07920384407043</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -9566,25 +10106,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.577523946762085</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4112423062324524</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6052810549736023</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.7599499633279055</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.6212956905365</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.5146126747131348</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4922775626182556</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.517358124256134</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.7173650916466</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>21.65945619344711</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -9819,13 +10395,13 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5994467069689206</v>
+        <v>0.5994467069689204</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3810138289765668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5951663634624214</v>
+        <v>0.5951663634624212</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7742394377509586</v>
@@ -9849,19 +10425,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.5973125293566622</v>
+        <v>0.5973125293566621</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.367435218209244</v>
+        <v>0.3674352182092439</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5881225455384489</v>
+        <v>0.5881225455384488</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7728599674951875</v>
+        <v>0.7728599674951874</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>19.22722356065989</v>
+        <v>19.22722356065988</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9969,10 +10545,10 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7137767255753188</v>
+        <v>0.7137767255753187</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4071458033346326</v>
+        <v>0.4071458033346327</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.6570858591823134</v>
@@ -10387,19 +10963,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5611916937964572</v>
+        <v>0.5658566291189436</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3706603820274635</v>
+        <v>0.3732170621786989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5381772643387823</v>
+        <v>0.5426192312636325</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7491272881136137</v>
+        <v>0.7522344243112938</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>19.59830396770119</v>
+        <v>19.89678812737798</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -10670,25 +11246,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7621976137161255</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4226095080375671</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6715346574783325</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8730392967765687</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>21.15807235240936</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.9191437363624573</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4767380356788635</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.7407035827636719</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.9587198424787385</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.63984978199005</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -10696,25 +11308,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.5997962951660156</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3856035470962524</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6273159980773926</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.7744651671741057</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.45436191558838</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.4315995573997498</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4132773876190186</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5471658706665039</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6569623713727825</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>18.90048384666443</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -10952,7 +11600,7 @@
         <v>0.6330179148535452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4013483438646332</v>
+        <v>0.401348343864633</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.3405782660575119</v>
@@ -10979,7 +11627,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.6927410636103</v>
+        <v>0.6927410636102999</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.4254319095877765</v>
@@ -10988,7 +11636,7 @@
         <v>0.366889964169078</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8323106773376754</v>
+        <v>0.8323106773376753</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>21.42062809460828</v>
@@ -11513,23 +12161,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 250, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5907036314393709</v>
+        <v>0.6356586815043886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3371946033554949</v>
+        <v>0.3297215266373872</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3020869790449049</v>
+        <v>0.3137433544166203</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7685724633626753</v>
+        <v>0.7972820589379825</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>18.56785614793634</v>
+        <v>17.20523614475228</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -11800,25 +12448,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.375904083251953</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7490541338920593</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5599876046180725</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.172989379002194</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>32.11658895015717</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.8196814656257629</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4301176071166992</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3989855647087097</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.9053626155446021</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.86635679006577</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -11826,25 +12510,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.380636990070343</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3555442690849304</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2596303820610046</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.6169578511295103</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>15.90615659952164</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.395443320274353</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4137247800827026</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2758258581161499</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.628842842270112</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>18.3577686548233</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -12079,19 +12799,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1502275699454181</v>
+        <v>0.1502275699454174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2943199755934425</v>
+        <v>0.2943199755934419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4628597682625433</v>
+        <v>0.4628597682625418</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3875920148112163</v>
+        <v>0.3875920148112153</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>42.36572963785186</v>
+        <v>42.36572963785169</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12565,19 +13285,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02724941228386235</v>
+        <v>0.02733352479161976</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1243351163570621</v>
+        <v>0.1248068204174151</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.216925334078688</v>
+        <v>0.2185408770847981</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1650739600417411</v>
+        <v>0.1653285359265597</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.49736561700513</v>
+        <v>19.60118332214478</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -12750,13 +13470,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04335927590727806</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1660772860050201</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3731131851673126</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2082289026703019</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.69653987884521</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -12776,13 +13514,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0248798094689846</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1413179785013199</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2016891986131668</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1577333492606576</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.0327525138855</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -13011,19 +13767,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.08823571935336413</v>
+        <v>0.0882357193533642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2378669898062114</v>
+        <v>0.2378669898062115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7157948687450291</v>
+        <v>0.7157948687450293</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2970449786705107</v>
+        <v>0.2970449786705108</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>41.03735942612197</v>
+        <v>41.037359426122</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -13041,16 +13797,16 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.09080790819426701</v>
+        <v>0.09080790819426705</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2377471411056985</v>
+        <v>0.2377471411056986</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.8100555804889319</v>
+        <v>0.8100555804889321</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.301343505312902</v>
+        <v>0.3013435053129021</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>39.86180469374</v>
@@ -13862,25 +14618,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06196197494864464</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1954890936613083</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7094605565071106</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2489216241081611</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>33.15929472446442</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.06288737058639526</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1973975449800491</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.7104089856147766</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2507735444308176</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>33.43528807163239</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -13888,25 +14680,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04086928442120552</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1661033481359482</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3487473428249359</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2021615305175679</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>25.19837915897369</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04098385944962502</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1683173179626465</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.3521188795566559</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2024447071415428</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>25.51944553852081</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -14141,19 +14969,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06568417156976672</v>
+        <v>0.06568417156976677</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2025734650766994</v>
+        <v>0.2025734650766995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4806369063233789</v>
+        <v>0.480636906323379</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.256289234205744</v>
+        <v>0.2562892342057441</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>37.35781960272924</v>
+        <v>37.35781960272928</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14812,13 +15640,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05555358529090881</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1874591708183289</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5494385957717896</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2356980807959811</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>31.13663494586945</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -14838,13 +15684,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03739302232861519</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1686957180500031</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2462757378816605</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1933727548767281</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.24934750795364</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -15073,19 +15937,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1359834276181835</v>
+        <v>0.1359834276181834</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2885270318605757</v>
+        <v>0.2885270318605755</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8134563064502328</v>
+        <v>0.8134563064502319</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3687593085173357</v>
+        <v>0.3687593085173355</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>51.36138318145683</v>
+        <v>51.36138318145682</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -15190,7 +16054,7 @@
         <v>0.06983800529445136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2114079939803255</v>
+        <v>0.2114079939803256</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.6227697846423553</v>
@@ -15559,19 +16423,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07169896044620355</v>
+        <v>0.07157039160738939</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2167509278198888</v>
+        <v>0.2167791609672638</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6233605202999131</v>
+        <v>0.622030993095364</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2677666156304844</v>
+        <v>0.2675264316051582</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>37.55197300245506</v>
+        <v>37.56831948784556</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -15744,13 +16608,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06227657198905945</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1931328922510147</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7084743976593018</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2495527439020847</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>32.80422389507294</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -15770,13 +16652,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04904093220829964</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1815418004989624</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3408052921295166</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2214518733456541</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>27.75580883026123</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16011,13 +16911,13 @@
         <v>0.7471345299622558</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3029155307416737</v>
+        <v>0.3029155307416733</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9361492052588235</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.89955978885211</v>
+        <v>30.89955978885209</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16447,19 +17347,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.271089762315378</v>
+        <v>1.272447241985907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5873538342636818</v>
+        <v>0.5778210014036071</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2368439773382248</v>
+        <v>0.2309610724882577</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.127426167123763</v>
+        <v>1.128028032446848</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>33.55307916540561</v>
+        <v>33.00132816086592</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -16676,13 +17576,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1605794876813889</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2563789486885071</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1248184069991112</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4007237049157297</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.24753302335739</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -16702,13 +17620,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05479566007852554</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1992404460906982</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07007377594709396</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.234084728417993</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.08211287856102</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16937,19 +17873,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.254934029011811</v>
+        <v>1.254934029011807</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8577830568368007</v>
+        <v>0.8577830568367998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3326557294302515</v>
+        <v>0.3326557294302513</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.120238380440436</v>
+        <v>1.120238380440434</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>32.14040464405803</v>
+        <v>32.14040464405799</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17051,16 +17987,16 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1951887340508759</v>
+        <v>0.195188734050876</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.316061056197083</v>
+        <v>0.3160610561970831</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1692483834608622</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.4418016908646638</v>
+        <v>0.4418016908646639</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>13.88389438944798</v>
@@ -17423,19 +18359,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6639237050802166</v>
+        <v>0.6578740320642102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6698729319609069</v>
+        <v>0.6687984109289989</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2506053193378488</v>
+        <v>0.2516254961373793</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8148151355247499</v>
+        <v>0.8110943422711135</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>29.55969627152313</v>
+        <v>29.55526036781445</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -17608,13 +18544,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2810788452625275</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3257980644702911</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2138103246688843</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5301686950985766</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.90871703624725</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -17634,13 +18588,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06899531930685043</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2293864637613297</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08362893760204315</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2626696010330286</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.327148109674454</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -17869,16 +18841,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>11.4646819056062</v>
+        <v>11.46468190560617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.692986870247276</v>
+        <v>2.692986870247274</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.196222279861068</v>
+        <v>1.196222279861066</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>3.385953618348338</v>
+        <v>3.385953618348334</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>105.2737273302539</v>
@@ -18320,7 +19292,7 @@
         <v>0.2738881799864384</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8400379816079625</v>
+        <v>0.8400379816079626</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>24.8049484726122</v>
@@ -18540,13 +19512,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3679282963275909</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3708958625793457</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2771440446376801</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.6065709326431583</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>16.50318056344986</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -18566,13 +19556,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1595311760902405</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2987910211086273</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1301229000091553</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3994135401939204</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>11.50548458099365</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -18801,19 +19809,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04534230641426312</v>
+        <v>0.04534230641426309</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1621337512339188</v>
+        <v>0.1621337512339186</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4595424425328609</v>
+        <v>0.4595424425328608</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2129373297810018</v>
+        <v>0.2129373297810017</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>27.38042013840945</v>
+        <v>27.38042013840942</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18831,10 +19839,10 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05316341110232916</v>
+        <v>0.05316341110232915</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1687058832479006</v>
+        <v>0.1687058832479008</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.4674020626284484</v>
@@ -18843,7 +19851,7 @@
         <v>0.2305719217561608</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>27.89188850534562</v>
+        <v>27.89188850534563</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -19652,25 +20660,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04779914766550064</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1686143577098846</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5442317724227905</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2186301618384358</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>28.20860743522644</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05251147598028183</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1824909299612045</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5580391883850098</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.229153826021478</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.21534085273743</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -19678,25 +20722,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02624362520873547</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1387485265731812</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.216256245970726</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1619988432327079</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.83403712511063</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01669033616781235</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.105484813451767</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1514428108930588</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1291910839331118</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>14.95328545570374</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -19931,19 +21011,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2090230231483231</v>
+        <v>0.2090230231483232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3970740304390541</v>
+        <v>0.3970740304390543</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1545173821893597</v>
+        <v>0.1545173821893598</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4571903576720786</v>
+        <v>0.4571903576720787</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.24629873988338</v>
+        <v>17.24629873988339</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19961,19 +21041,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1702762931317762</v>
+        <v>0.1702762931317764</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.3625881271860286</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1401344952880603</v>
+        <v>0.1401344952880604</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.412645481172127</v>
+        <v>0.4126454811721272</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>15.45535485454586</v>
+        <v>15.45535485454588</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -20499,19 +21579,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04350649203875663</v>
+        <v>0.04611166882620929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1761547517651966</v>
+        <v>0.1807293408703789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07323215038636849</v>
+        <v>0.07555794791159295</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2085820990371816</v>
+        <v>0.2147362773874254</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.066407180629465</v>
+        <v>7.256635684512124</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -20782,25 +21862,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1504710167646408</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.242390513420105</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1197408810257912</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3879059380373557</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>9.730903804302216</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1587589681148529</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.256692111492157</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1246501803398132</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3984456902952432</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.2607749402523</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -20808,25 +21924,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04197578877210617</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1832741647958755</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06498297303915024</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2048799374563214</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.496758759021759</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05628522485494614</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2084512710571289</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07456432282924652</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2372450734050048</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.388041168451309</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -21062,19 +22214,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3426649786612627</v>
+        <v>0.3426649786612618</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4946331477450608</v>
+        <v>0.4946331477450602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2332009535293996</v>
+        <v>0.2332009535293993</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5853759293490489</v>
+        <v>0.5853759293490481</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>22.39052901432542</v>
+        <v>22.39052901432541</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21092,19 +22244,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3327242215779201</v>
+        <v>0.3327242215779194</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4772389041703951</v>
+        <v>0.4772389041703947</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2272115595718258</v>
+        <v>0.2272115595718255</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.5768225217325691</v>
+        <v>0.5768225217325684</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>21.77912061887888</v>
+        <v>21.77912061887885</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -21630,19 +22782,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2232752824933102</v>
+        <v>0.2237449821494666</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.258789939866145</v>
+        <v>0.2591271486596784</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2115356202134154</v>
+        <v>0.2090438728852799</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4725201397753436</v>
+        <v>0.473016894148049</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.4503503340105</v>
+        <v>12.31457740120618</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -21660,19 +22812,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.2402262213042916</v>
+        <v>0.2271161720575886</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2679954270332473</v>
+        <v>0.2564280935777439</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.2213060822860433</v>
+        <v>0.2127148049997911</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.4901287803264481</v>
+        <v>0.476567069841789</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>12.80643045714995</v>
+        <v>12.24020191998006</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -21913,25 +23065,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3323264420032501</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3257058560848236</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2590607404708862</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5764776162204827</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.88155871629715</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.3424760401248932</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3407736718654633</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.264064759016037</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.585214524875189</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>15.44420272111893</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -21939,25 +23127,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1319898813962936</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2600947916507721</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1145448461174965</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3633041169547816</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.12308597564697</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1428225785493851</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2731938064098358</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1197400912642479</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3779187459618603</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>10.5984203517437</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -22193,19 +23417,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2424703911525058</v>
+        <v>0.2424703911525057</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4001932082525871</v>
+        <v>0.4001932082525868</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1744978310756148</v>
+        <v>0.1744978310756146</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4924128259423244</v>
+        <v>0.4924128259423242</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.47781506045528</v>
+        <v>17.47781506045526</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22226,7 +23450,7 @@
         <v>0.2591470981712007</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4028420268567232</v>
+        <v>0.4028420268567233</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.1670395434644102</v>
@@ -22235,7 +23459,7 @@
         <v>0.5090649253004972</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>18.68747167131568</v>
+        <v>18.68747167131567</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -22757,23 +23981,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'loss': 'linear', 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.145870282845612</v>
+        <v>0.1307856073518821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.24615762566936</v>
+        <v>0.2363896176434076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1537160104949944</v>
+        <v>0.1456906402763662</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3819296831166857</v>
+        <v>0.3616429279716142</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.156159149829</v>
+        <v>10.69815842176663</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -22791,19 +24015,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.1762769821307778</v>
+        <v>0.1618776289261765</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2451323978544269</v>
+        <v>0.2281664549102113</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.1670699674845083</v>
+        <v>0.1571975371713883</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.4198535246139751</v>
+        <v>0.4023401905429986</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>11.05607419610019</v>
+        <v>10.43040860091909</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -23044,25 +24268,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2732134461402893</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3105986714363098</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.208374097943306</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5226982362131035</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.35660964250565</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2660748660564423</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3136107623577118</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.206547349691391</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5158244527515561</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.49478214979172</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -23070,25 +24330,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06304270774126053</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2163998782634735</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07958726584911346</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2510830694038539</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.86106288433075</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.06206097081303596</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2125710844993591</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07871405035257339</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2491203942133923</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.722365856170654</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -23326,19 +24622,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>9.78755379737431e-06</v>
+        <v>9.787553797374864e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.002491760228788089</v>
+        <v>0.002491760228787398</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.004263607067472878</v>
+        <v>0.004263607067471086</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.003128506640135883</v>
+        <v>0.003128506640135971</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.4245645842577158</v>
+        <v>0.4245645842575393</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23356,19 +24652,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>9.546173097008989e-06</v>
+        <v>9.546173097004827e-06</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.002390611091570138</v>
+        <v>0.002390611091569943</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.004175668743454997</v>
+        <v>0.004175668743454485</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.003089688187667</v>
+        <v>0.003089688187666326</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.4155282870965675</v>
+        <v>0.4155282870965178</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -23894,19 +25190,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02751414270116221</v>
+        <v>0.0341985175891646</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1324142665732716</v>
+        <v>0.1498643691974876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2602638284727062</v>
+        <v>0.2837082075069339</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1658738758851502</v>
+        <v>0.1849284120657629</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>21.86577047559327</v>
+        <v>24.4617887023197</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -23956,19 +25252,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0639788276692206</v>
+        <v>0.06368518373295319</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2012331926571488</v>
+        <v>0.2006739205586272</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3072764040650935</v>
+        <v>0.3064854894619203</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2529403638591923</v>
+        <v>0.2523592354817893</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>32.11636579457937</v>
+        <v>32.00075545506249</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -24177,25 +25473,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04161655530333519</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1604987680912018</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3718325197696686</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.204001361033046</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>24.8503565788269</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0434647724032402</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.165627732872963</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3748929500579834</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2084820673421103</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>25.61026811599731</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -24203,25 +25535,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02218262478709221</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1278648525476456</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1841887533664703</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1489383254474556</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.28059202432632</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02916644886136055</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1511423587799072</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2251532077789307</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1707818750961604</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>20.23237943649292</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -24460,19 +25828,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.003065124719534111</v>
+        <v>0.003065124719534096</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04434451047512879</v>
+        <v>0.04434451047512875</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1288197861496324</v>
+        <v>0.1288197861496312</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.05536356852239667</v>
+        <v>0.05536356852239653</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>10.25758990262419</v>
+        <v>10.25758990262414</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -24490,19 +25858,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.002621886156944521</v>
+        <v>0.0026218861569445</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.04038195391204003</v>
+        <v>0.04038195391203985</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1121206415879064</v>
+        <v>0.1121206415879072</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.05120435681604175</v>
+        <v>0.05120435681604155</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>9.211114416047039</v>
+        <v>9.211114416047057</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -25054,23 +26422,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.06044434237954258</v>
+        <v>0.05741820485000351</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2067681514994856</v>
+        <v>0.1984890930613731</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.4600159514701184</v>
+        <v>0.503257161682153</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2458543112893133</v>
+        <v>0.2396209607901686</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>36.91205072427406</v>
+        <v>35.71558464771659</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1">
@@ -25090,19 +26458,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07847094960726589</v>
+        <v>0.07844453454313254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2349969841698394</v>
+        <v>0.234861438479153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5654241891125998</v>
+        <v>0.565190770385362</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2801266670762816</v>
+        <v>0.2800795146795505</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>41.51849471777991</v>
+        <v>41.49339474400396</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -25311,25 +26679,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06076821684837341</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1937241405248642</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7065266370773315</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2465121028435996</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>32.91733264923096</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05953400209546089</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1891131103038788</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.6963270306587219</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2439959058989738</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>32.29946494102478</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -25337,25 +26741,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04153545200824738</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1676145046949387</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3535294234752655</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2038024828314105</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>25.42597353458405</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04466009140014648</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1696834564208984</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.3658082783222198</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2113293434432296</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>25.6415456533432</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -25592,19 +27032,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02465383927808524</v>
+        <v>0.02465383927808517</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1154987153603183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3182737770437605</v>
+        <v>0.3182737770437604</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1570154109572854</v>
+        <v>0.1570154109572852</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>20.57770424586291</v>
+        <v>20.57770424586292</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25622,19 +27062,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02523556091554525</v>
+        <v>0.0252355609155453</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1193112820686139</v>
+        <v>0.1193112820686143</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3291322408254556</v>
+        <v>0.3291322408254562</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1588570455332254</v>
+        <v>0.1588570455332255</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>21.32904450193377</v>
+        <v>21.32904450193384</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26190,19 +27630,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.05853467072146753</v>
+        <v>0.06023867916363463</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1916981461388409</v>
+        <v>0.1992780951422665</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.5448998930823844</v>
+        <v>0.5590131170469136</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2419393947282408</v>
+        <v>0.2454356925217574</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>31.72869108193296</v>
+        <v>32.81610315463359</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -26443,25 +27883,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05165629461407661</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1789838820695877</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5567883253097534</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2272802116640967</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>29.69845235347748</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05187707021832466</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1796159744262695</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5542470812797546</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2277653841529144</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>29.80480790138245</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -26469,25 +27945,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0332779698073864</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1587163656949997</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2550281882286072</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1824225035662717</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22.49871492385864</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03081158921122551</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1557533144950867</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2513062953948975</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1755323024722957</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>22.12649285793304</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">

--- a/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
@@ -832,19 +832,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03644519997115629</v>
+        <v>0.03644519997112204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.144577045541548</v>
+        <v>0.1445770455415094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2927124338565449</v>
+        <v>0.2927124338564214</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1909062596437222</v>
+        <v>0.1909062596436325</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>22.50719964388037</v>
+        <v>22.50719964387649</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -862,19 +862,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.03642637757241255</v>
+        <v>0.0364263775724414</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1446278638793672</v>
+        <v>0.1446278638794372</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.292771064124611</v>
+        <v>0.2927710641250642</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.190856955787345</v>
+        <v>0.1908569557874205</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>22.51779321536324</v>
+        <v>22.51779321537244</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -883,25 +883,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.08656660991536</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>27.08656660991536</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -971,25 +1007,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.0285486451926583</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1381218472145098</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2547389123984613</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.168963443361747</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>22.15189125909536</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02844417114089064</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1385550408160632</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2543468867460247</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1686539982950023</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>22.238548895875</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -1306,19 +1378,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0384454130712189</v>
+        <v>0.03843931882080412</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1450215287707731</v>
+        <v>0.1452731646809858</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.2093322674494425</v>
+        <v>0.2098024577068602</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1960750189881895</v>
+        <v>0.1960594777632648</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>23.84680521367302</v>
+        <v>23.88451933439343</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -1513,25 +1585,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03744086038078449</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1468915093251235</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2532738884673524</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.193496409219356</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>23.04582828085431</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03734882186100184</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1466616997299325</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2521968131424639</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.193258432832831</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>23.01598192011974</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -2090,25 +2198,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.48242223288885</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>16.48242223288885</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2178,25 +2322,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1986643274155895</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3667050053534488</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1600610398088079</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4457177665469366</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>14.98297307568387</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1900658202142755</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3628372671234399</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.155762881537678</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4359653887802052</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>14.92023124199898</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -2483,19 +2663,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.046524143048225</v>
+        <v>1.045695205685103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9409192106944345</v>
+        <v>0.9402592087417722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3903644046023775</v>
+        <v>0.3901350899517192</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.022997626120523</v>
+        <v>1.022592394693557</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>45.30337302438225</v>
+        <v>45.27398800708659</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -2513,19 +2693,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>3.004735118477849</v>
+        <v>3.008577325569414</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.603027680958329</v>
+        <v>1.604135234768967</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6081064884034438</v>
+        <v>0.6086799070695644</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.73341717958426</v>
+        <v>1.734525100876149</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>88.59686329073224</v>
+        <v>88.69593800687504</v>
       </c>
     </row>
     <row r="17">
@@ -2720,25 +2900,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>2.482172797826763</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.432703158710439</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5379385677700375</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.575491287766061</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>77.66809730067376</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>1.5508827589986</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1.163611078831611</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4907623306576907</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.245344433881085</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>56.86729196929662</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3273,19 +3489,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.2589945616815881</v>
+        <v>0.258994561681588</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.3338054275456079</v>
+        <v>0.3338054275456077</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.2062131744115891</v>
+        <v>0.206213174411589</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.5089150829770995</v>
+        <v>0.5089150829770994</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>14.29557413103526</v>
+        <v>14.29557413103525</v>
       </c>
     </row>
     <row r="9" ht="183" customHeight="1">
@@ -3294,25 +3510,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.11028569766919</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.11028569766919</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -3382,25 +3634,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2935846764036268</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4497376935763593</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2159515915712121</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5418345470746829</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>19.1645530445216</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2310175960442371</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3938874658598439</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1632976837709694</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4806428986724314</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.74846440861567</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -3687,19 +3975,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.263998069415986</v>
+        <v>1.260883013195531</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.023758140785072</v>
+        <v>1.022856702268648</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3917105583104318</v>
+        <v>0.3913223074334435</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.124276687215378</v>
+        <v>1.122890472484085</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>49.38098468103668</v>
+        <v>49.29718206501062</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -3717,19 +4005,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.294465902298206</v>
+        <v>1.290312495173906</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.034319817325307</v>
+        <v>1.03361438681709</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3893009969052697</v>
+        <v>0.3891621943594854</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.137745974415294</v>
+        <v>1.135919229159321</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>48.12004395347735</v>
+        <v>48.07703027238524</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -3924,25 +4212,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.110029798250699</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.9611539963685021</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3867663087599376</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.053579516814322</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>45.73630052573328</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6746310028784992</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.7006239351246423</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2965493728271066</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8213592410623376</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>31.47080640417204</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -4477,19 +4801,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.1687614761133885</v>
+        <v>0.1687614761133884</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2863875832384118</v>
+        <v>0.2863875832384116</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>0.131073596239591</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.4108058861717886</v>
+        <v>0.4108058861717885</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>11.36838975192532</v>
+        <v>11.36838975192531</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -4498,25 +4822,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.19906587001983</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.19906587001983</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -4586,25 +4946,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1850527236681562</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3521249757216268</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1495521660105339</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4301775490052406</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>13.49852596745654</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.144471310011812</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3008357684626207</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1300247367058779</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3800938173817249</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>11.56975613610136</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -4891,19 +5287,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.983293612763023</v>
+        <v>1.967927470616088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.295154631671617</v>
+        <v>1.287917176362581</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4725017525042378</v>
+        <v>0.4698881239322417</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.40829457599006</v>
+        <v>1.402828382453138</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>64.16102286927921</v>
+        <v>63.74730187208463</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -4921,19 +5317,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.27397316259953</v>
+        <v>1.264940254226</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.049793535659974</v>
+        <v>1.046878600983361</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3813145866972006</v>
+        <v>0.380629326109654</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.128704196235457</v>
+        <v>1.124695627370357</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>47.43903451977724</v>
+        <v>47.26872173937233</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -5128,25 +5524,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.627631989117326</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.166244380250842</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4353912266078519</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.275786811782175</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>56.70869118090637</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>1.510294511005913</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1.116465224270856</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4145852451386147</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.228940401730659</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>54.15219604589551</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -5649,7 +6081,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06603435457954623</v>
+        <v>0.06603435457954625</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.1887278802023828</v>
@@ -5661,7 +6093,7 @@
         <v>0.2569715053844419</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>36.87863557077266</v>
+        <v>36.87863557077267</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -5679,19 +6111,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.04860682686160276</v>
+        <v>0.04860682686160278</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.1402321667254366</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>1.829639943725844</v>
+        <v>1.829639943725845</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2204695599433236</v>
+        <v>0.2204695599433237</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>29.50288304291425</v>
+        <v>29.50288304291426</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -5700,25 +6132,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1155970603794046</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2262978115408346</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.430627540985773</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3399956770010534</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>39.10217858102259</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1155970603794046</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2262978115408345</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>2.430627540985773</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3399956770010534</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>39.10217858102259</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -5788,25 +6256,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5534899127337557</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.6863086270077073</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.706450122857462</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7439690267301158</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>174.0466344713495</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4011507566428459</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5791762014379676</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9336621884095294</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6333646316639775</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>179.8392331733711</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -6330,25 +6834,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06362783685714821</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1808081195065476</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.897694321842118</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.252245588379952</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>35.53449289946797</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.06456858301446498</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1818092960285032</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.917767001224504</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.254103488788456</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>35.63043018181679</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -6881,19 +7421,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.08356293358486425</v>
+        <v>0.08356293358486414</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2048945694248827</v>
+        <v>0.2048945694248825</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>2.295235404350749</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2890725403507989</v>
+        <v>0.2890725403507987</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>38.38537310748099</v>
+        <v>38.38537310748097</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6902,25 +7442,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.07218935291724661</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2108970814093183</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.014266557032996</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2686807639509137</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>40.57051994877986</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.07218935291724661</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2108970814093183</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>2.014266557032996</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2686807639509137</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>40.57051994877986</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -6990,25 +7566,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>955.5692757260084</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>29.54611136861001</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>136.2462712509559</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>30.91228357346005</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>197.0485982628808</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2864323333653529</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4867730452625011</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.053701294562961</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5351937344227349</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>131.0846433784488</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -7532,25 +8144,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07459253796934666</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2012325355259515</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.170364437195931</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2731163451156789</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>38.39955855623405</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.06928826784797093</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1941345669757389</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>2.053979559994304</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2632266472984278</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>37.78580334243667</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8053,19 +8701,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07149806158381154</v>
+        <v>0.07151065610817336</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2116039518170735</v>
+        <v>0.2116217076009412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.059095864504548</v>
+        <v>2.059456768990583</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2673912144850902</v>
+        <v>0.2674147641925804</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>40.39558365176834</v>
+        <v>40.3970521056298</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -8083,7 +8731,7 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.06931290579933368</v>
+        <v>0.06931290579933369</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.2090013843952478</v>
@@ -8104,25 +8752,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.07170041364602651</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2107091491690027</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.065944132594187</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2677693291735006</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>40.1675103959074</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.07170041364602651</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2107091491690027</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>2.065944132594187</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2677693291735006</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>40.1675103959074</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -8192,25 +8876,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.295532519518154</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4491435872374246</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.029788667677403</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5436290274793594</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>104.6193402697233</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.814827748451203</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3274625756345748</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>2.47767168060615</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.9026780979126517</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>44.6379885565304</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -8527,19 +9247,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.07971508149272363</v>
+        <v>0.07992266078509855</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2204374109299494</v>
+        <v>0.219396654181075</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>2.100805557622162</v>
+        <v>2.108320682162743</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2823385937004072</v>
+        <v>0.2827059617077407</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>41.23910159925253</v>
+        <v>41.07200862387914</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -8734,25 +9454,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07722534864192244</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2143188320209041</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.161192300807425</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2778944919244036</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>40.31086051537957</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.07043426303888987</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2088867204712537</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>2.036212223199693</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2653945422176008</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>39.99898939137557</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -9255,19 +10011,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7266453167147373</v>
+        <v>0.7266115167625639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3901352420825559</v>
+        <v>0.3900903666100685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.635668090409064</v>
+        <v>0.6356533730215534</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8524349340065418</v>
+        <v>0.8524151082439611</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>19.78094584089737</v>
+        <v>19.77929890448891</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -9285,7 +10041,7 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.7329628133959707</v>
+        <v>0.7329628133959709</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.4062202014279719</v>
@@ -9294,7 +10050,7 @@
         <v>0.6392116781765705</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.8561324742094361</v>
+        <v>0.8561324742094362</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>20.40971318189973</v>
@@ -9306,25 +10062,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8225046646275814</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4586117223473177</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6702562180506753</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9069204290496391</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>22.09490071810012</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.774834050773481</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.489673810659532</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6588926423717774</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8802465852097814</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>23.50777126099691</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -9394,25 +10186,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.6195085732710501</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4113219403596037</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.5823654462610296</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7870886692559169</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.93027481957617</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>9.340472955208856</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.862828497359032</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.226573069859986</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>3.056218734843574</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>171.598903736907</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -9936,25 +10764,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.7036655444971238</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3897079077393877</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6189005702111535</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8388477481027912</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.71786653546238</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.7091811737057511</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4074361402244974</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6241243150378889</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8421289531335157</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>20.43960986822784</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -10457,19 +11321,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6862499453397828</v>
+        <v>0.686538195389734</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3764383142046768</v>
+        <v>0.3765189309982882</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.630111059643622</v>
+        <v>0.630280282649174</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.828402043297687</v>
+        <v>0.8285760045944693</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>19.57566255564947</v>
+        <v>19.57800417575215</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -10487,19 +11351,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.7144288647508324</v>
+        <v>0.7145044403345231</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.3612593211629176</v>
+        <v>0.3612619893437493</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.637929968561029</v>
+        <v>0.6379884888582468</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.8452389394430622</v>
+        <v>0.8452836448994639</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>18.92252537924287</v>
+        <v>18.92264488545241</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -10508,25 +11372,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8105062543808967</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4986723995204913</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6866979874750219</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9002812085014863</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>24.00838771843201</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.8105062543808967</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.4986723995204913</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6866979874750219</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.9002812085014863</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>24.00838771843201</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -10596,25 +11496,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5914874014616793</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3834545523784266</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.5883122745308804</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7690821812145171</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>19.96599083832854</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>5.5191127889248</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>1.969809201262536</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9529099718805701</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.349279206251313</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>99.42484034693199</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -11138,25 +12074,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5327141029899495</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3947702528654066</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5225800557042285</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7298726621746765</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>21.36757744704979</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5589077579542292</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3964044282377961</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.555486748873374</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7476013362442775</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>21.41462523734774</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -11659,19 +12631,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7545536689695658</v>
+        <v>0.7545536689695652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3866598730625808</v>
+        <v>0.3866598730625804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3737062008291597</v>
+        <v>0.3737062008291595</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8686504872326762</v>
+        <v>0.8686504872326759</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>19.41309702584126</v>
+        <v>19.41309702584125</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -11689,16 +12661,16 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.8017296985726655</v>
+        <v>0.8017296985726652</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.4339562731562995</v>
+        <v>0.4339562731562993</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>0.3976915845986232</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.8953935998055076</v>
+        <v>0.8953935998055074</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>21.09291966267628</v>
@@ -11710,25 +12682,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.808111189700239</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4943536064078694</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4153011710430879</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8989500485011606</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.4394738819784</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.808111189700239</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.4943536064078694</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.4153011710430879</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8989500485011606</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>23.4394738819784</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -11798,25 +12806,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.7202761909187949</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.6432342740726111</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4055545200144645</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.8486908688791196</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>32.76914650250325</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.6764735836640506</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4567070392631716</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3693947002023509</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.8224801418052904</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>22.99806716799528</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -12340,25 +13384,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5181555975227713</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3396353456383959</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2932546803788203</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.719830256048446</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.64790904102474</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6752001814624679</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4137450661064323</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.347349920165334</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8217056537851422</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>21.22796854926089</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -12876,13 +13956,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.08656660991536</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -12946,13 +14044,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02536946655075712</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1289953459847047</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2298524518943416</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1592779537499058</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.41272209488118</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -13197,19 +14313,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03313290294471567</v>
+        <v>0.03288831965262336</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1483114946561677</v>
+        <v>0.1477970583999605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2528881256851528</v>
+        <v>0.2522568608387141</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1820244569960742</v>
+        <v>0.1813513706940848</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>23.9563167974689</v>
+        <v>23.92799997247541</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -13362,13 +14478,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02614704937423791</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1273971246902029</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2305546469491553</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1617004928076532</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.61518835772389</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -13880,25 +15014,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>33.68024536253559</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>33.68024536253559</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -13968,25 +15138,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.0637280166488598</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2013284867517215</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.6125720338185838</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.252444086183178</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>34.81281953161366</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.06368538874593119</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.2011464143052253</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.6134264306329226</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2523596416742011</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>34.7746426112075</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -14273,19 +15479,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07473577256022872</v>
+        <v>0.07471516077580632</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2090041730632541</v>
+        <v>0.2088851874250233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7033413133609497</v>
+        <v>0.7036314288078427</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2733784420180727</v>
+        <v>0.2733407411561736</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>35.78821944891077</v>
+        <v>35.76106847769544</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -14303,19 +15509,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.07484624215427146</v>
+        <v>0.07494656419708531</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2080158441872044</v>
+        <v>0.2079524515910517</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.7099163371501767</v>
+        <v>0.7097539561741247</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2735804125924798</v>
+        <v>0.273763701386954</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>35.4892978508047</v>
+        <v>35.47977888896729</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -14510,25 +15716,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06393246858625869</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2023215040924541</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6222207091567631</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2528487069103947</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>34.92991691559681</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.063746056658398</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.202074720994869</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6205803880156072</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2524798143582928</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>34.90168406747733</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -15013,19 +16255,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04607113729174542</v>
+        <v>0.04607113729174538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1671544174470052</v>
+        <v>0.167154417447005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4598500176342037</v>
+        <v>0.4598500176342034</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2146418814950741</v>
+        <v>0.214641881495074</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>28.30221672165741</v>
+        <v>28.30221672165737</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -15046,13 +16288,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05333434849253286</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1836392004221472</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5090276832651499</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2309423055495308</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.73537468940822</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -15116,13 +16376,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06057648195148523</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1927405706860295</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4663006971677146</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2461229000956336</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>34.95884950860702</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -15367,19 +16645,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04252937918370246</v>
+        <v>0.04253733031882442</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.158216196751469</v>
+        <v>0.1582527755622467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4483035372767058</v>
+        <v>0.4483511092997828</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2062265239577646</v>
+        <v>0.2062458007301589</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>26.99546255433373</v>
+        <v>27.00097083221471</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -15532,13 +16810,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05708941605315767</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1903011759666142</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.49430443567581</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2389339156611252</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.93584028500944</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -15981,19 +17277,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06119575150860278</v>
+        <v>0.06119575150860274</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1963136485935081</v>
+        <v>0.196313648593508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6345923815950977</v>
+        <v>0.6345923815950976</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.2473777506337277</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>33.82700154323731</v>
+        <v>33.8270015432373</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -16014,13 +17310,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>33.68024536253559</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -16084,13 +17398,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06561565677411951</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2052646640839024</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.6072207710339054</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2561555323902248</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>35.56972534234276</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -16335,19 +17667,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.08807984532656585</v>
+        <v>0.08767766618332377</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2429547159458768</v>
+        <v>0.241982001446662</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6338203841323432</v>
+        <v>0.6317848718227415</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2967824882410784</v>
+        <v>0.2961041475280679</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>42.80674994867731</v>
+        <v>42.66450826082787</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -16500,13 +17832,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0742818899485907</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2228793048104842</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6057930076902629</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2725470417168213</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.02417634961298</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16949,19 +18299,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1119202507708567</v>
+        <v>0.1119202507708151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2062866046407682</v>
+        <v>0.2062866046406633</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1012700556833262</v>
+        <v>0.1012700556832876</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3345448411959998</v>
+        <v>0.3345448411959376</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.431414429276794</v>
+        <v>8.431414429272914</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -16982,13 +18332,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.19906587001983</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -17052,13 +18420,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2430469984732183</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4032224323366004</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1643346364862022</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4929979700497948</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>16.00940142304688</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17468,13 +18854,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4477006866062762</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4701975856184271</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1766949606806289</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.6691043914115915</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.21138085684571</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -17917,19 +19321,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2490130544884688</v>
+        <v>0.2490130544884447</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2939967262574301</v>
+        <v>0.2939967262573838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1977199291923237</v>
+        <v>0.1977199291923293</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4990120784995778</v>
+        <v>0.4990120784995536</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>12.76970957181364</v>
+        <v>12.76970957181181</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -17950,13 +19354,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.11028569766919</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18020,13 +19442,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3087297696002327</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4407114602067297</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2248796170086048</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5556345647997727</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.69662517577272</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -18271,19 +19711,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9915220539906836</v>
+        <v>0.9913928162556369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7412531974911126</v>
+        <v>0.7411615667706666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2838377713539966</v>
+        <v>0.2835815331814353</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9957520042614444</v>
+        <v>0.9956871076074235</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>37.22604936814177</v>
+        <v>37.22349545319965</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -18436,13 +19876,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5096170074984577</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5019804453258288</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2018782126113309</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7138746441066931</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>24.45093835175297</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -18885,19 +20343,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2726762267080657</v>
+        <v>0.2726762267080625</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2889926307200944</v>
+        <v>0.288992630720084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2311650479537554</v>
+        <v>0.2311650479537513</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5221840927374806</v>
+        <v>0.5221840927374775</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.60856535522928</v>
+        <v>13.60856535522892</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -18918,13 +20376,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.48242223288885</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18988,13 +20464,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3745902052376652</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4747498682002403</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2808915309624448</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6120377482130209</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.91541012115851</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -19239,19 +20733,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.966761091651278</v>
+        <v>0.9696053287680679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8083727403706052</v>
+        <v>0.8096178940882848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3602282012836244</v>
+        <v>0.3608198808632579</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9832400986795026</v>
+        <v>0.9846853958336479</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>39.15899187307522</v>
+        <v>39.25577010305065</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -19404,13 +20898,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.8449768924309784</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.7982986733160908</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3499796021471778</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.9192262465960045</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>38.04608229294269</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -19871,19 +21383,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05170816274856448</v>
+        <v>0.05170816274856444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1797900817166363</v>
+        <v>0.1797900817166362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4895932375779174</v>
+        <v>0.4895932375779171</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2273942891731551</v>
+        <v>0.227394289173155</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>30.21052075268919</v>
+        <v>30.21052075268916</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -19901,7 +21413,7 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05171917165802248</v>
+        <v>0.05171917165802253</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.1798075781036035</v>
@@ -19910,10 +21422,10 @@
         <v>0.4896242643946309</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2274184945382026</v>
+        <v>0.2274184945382027</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>30.21321485008901</v>
+        <v>30.21321485008903</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -19922,25 +21434,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05333434849253286</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1836392004221472</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5090276832651499</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2309423055495308</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.73537468940822</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05333434849253286</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1836392004221472</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5090276832651499</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2309423055495308</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.73537468940822</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -20010,25 +21558,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04498262517619675</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1663842819618105</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4387587910397633</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2120910775497092</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>28.1873630276819</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04529062390494942</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1668087025047905</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.4394200363341286</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2128159390293627</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>28.25359808092965</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -20315,19 +21899,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0430636145031605</v>
+        <v>0.04305516049960781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1621132344905162</v>
+        <v>0.1620249081115867</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4867369795735703</v>
+        <v>0.4882744120663254</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2075177450319864</v>
+        <v>0.2074973746812422</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>27.73277784827178</v>
+        <v>27.71181378498138</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -20345,19 +21929,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.04232807033552485</v>
+        <v>0.04238601331900109</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1611448153186547</v>
+        <v>0.1613937479713551</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.4748001179138425</v>
+        <v>0.476432921490795</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2057378680154066</v>
+        <v>0.2058786373546345</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>27.57085078905503</v>
+        <v>27.59693180604601</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -20552,25 +22136,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05212100598891214</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1840919190560389</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4952628507589047</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2283002540272615</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>30.93915709824838</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05161852308464918</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1831127872821404</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4932135413664528</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2271971018403386</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>30.79369421920884</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -21073,19 +22693,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08448514192018236</v>
+        <v>0.08448514192018247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1896836513454656</v>
+        <v>0.189683651345462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08973100417330986</v>
+        <v>0.08973100417331005</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2906632792772117</v>
+        <v>0.2906632792772119</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.769319489832725</v>
+        <v>7.769319489832611</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -21103,19 +22723,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.08098962003223183</v>
+        <v>0.08098962003223252</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1811459761365279</v>
+        <v>0.1811459761365288</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.08620568059123282</v>
+        <v>0.08620568059123324</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2845867530863512</v>
+        <v>0.2845867530863525</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>7.444620215992816</v>
+        <v>7.444620215992847</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -21124,25 +22744,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.19906587001983</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1665199396186878</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2819851710152386</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.130436080137935</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.4080685476959574</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.19906587001983</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -21212,25 +22868,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2412779886315264</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4013120152141934</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1634010458523087</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4912005584601126</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.92363721809781</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2413292993498781</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4013684726077111</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.16342177234718</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4912527855899426</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>15.92590900113033</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -21754,25 +23446,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04982518368577771</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1763575984615251</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.07062406243941582</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.22321555430968</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>6.999639011789824</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05514362045318578</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1825278557396358</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.07403069327777476</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2348267881933102</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>7.281318783033394</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -22276,19 +24004,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2483196504499578</v>
+        <v>0.2483196504499544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2784188768427437</v>
+        <v>0.2784188768427489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2209591208185602</v>
+        <v>0.2209591208185591</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4983168173461114</v>
+        <v>0.4983168173461081</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.2088483783875</v>
+        <v>13.20884837838772</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -22306,19 +24034,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.2434328393130026</v>
+        <v>0.243432839313007</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2749937176068527</v>
+        <v>0.2749937176068625</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.2188872277077961</v>
+        <v>0.2188872277077999</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.4933891357873647</v>
+        <v>0.4933891357873691</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>13.09155654185536</v>
+        <v>13.09155654185573</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -22327,25 +24055,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.48242223288885</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.341187436246534</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3682248017734828</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2680821073384063</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5841125201932706</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>16.48242223288885</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -22415,25 +24179,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.369821368873765</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.471291591671966</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2801640429115404</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6081294014219055</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.75780447667754</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3697838255679851</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4712838879533359</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2801605055929167</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6080985327790103</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>20.75751128083969</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -22720,19 +24520,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2362126997451421</v>
+        <v>0.2360856861387593</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2811835546732512</v>
+        <v>0.2809734390817971</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1826476527499913</v>
+        <v>0.1825805858257218</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.4860171805040869</v>
+        <v>0.4858864951187255</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>13.80355952055965</v>
+        <v>13.7960580818245</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -22957,25 +24757,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2274567910782083</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3308859742486649</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2101287771409261</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.4769243033000188</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>15.24628342705663</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.2326627808264381</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3411129747588755</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1953398050935196</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4823513043689611</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>16.19391942637874</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -23479,19 +25315,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1677992176187884</v>
+        <v>0.1677992176187789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2259269611679187</v>
+        <v>0.2259269611679197</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1568073697115624</v>
+        <v>0.15680736971156</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4096330279882086</v>
+        <v>0.4096330279881969</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>10.31592704955617</v>
+        <v>10.31592704955623</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -23509,19 +25345,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.1682037708986321</v>
+        <v>0.1682037708986324</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2306075307001126</v>
+        <v>0.2306075307001131</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1579482875054958</v>
+        <v>0.1579482875054961</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.4101265303520757</v>
+        <v>0.4101265303520761</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>10.49359504664136</v>
+        <v>10.49359504664138</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -23530,25 +25366,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.11028569766919</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2596840165691064</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3292895567667161</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2067857154789246</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5095920099148988</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.11028569766919</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -23618,25 +25490,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3091441593451917</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4387869205438372</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2272397852667329</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5560073374922239</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.56598022614222</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3090236082782473</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4387664406753416</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2271983807772823</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5558989191195171</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>18.56544743932298</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -23923,19 +25831,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.140165784827265</v>
+        <v>0.140165736911373</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2725530720163217</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1501651881562129</v>
+        <v>0.1501506686070603</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.3743872124248703</v>
+        <v>0.3743871484324388</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>12.39143819306476</v>
+        <v>12.39013035328392</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -23953,19 +25861,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.1417146782691335</v>
+        <v>0.1416229380769468</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2452749655050724</v>
+        <v>0.2452492150352787</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.1394808595396624</v>
+        <v>0.1394743490670536</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.3764501006363706</v>
+        <v>0.3763282318361816</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>11.78207190223107</v>
+        <v>11.78025977597714</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -24160,25 +26068,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1378313647316607</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2382578672145039</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1480181106568789</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.3712564675957319</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>10.96561344995355</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1627304111003115</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2664829760174411</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1610694570878625</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4033985759770497</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>12.14660284098473</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -24735,25 +26679,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.08656660991536</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04844702540556579</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.174112410629967</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3489182037358353</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2201068499742018</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>27.08656660991536</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -24823,25 +26803,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05243791205944026</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1801270936028938</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3424610278551638</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2289932576724482</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>28.10828176449768</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.05244061884963863</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1801410431794207</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3424675415874282</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2289991677924587</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>28.11067453546853</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -25158,19 +27174,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05996846871809676</v>
+        <v>0.05989627181646479</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1931968150799658</v>
+        <v>0.1929569890527958</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3175261675987081</v>
+        <v>0.3168361358174128</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2448846028604019</v>
+        <v>0.244737148419411</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>30.83030226884994</v>
+        <v>30.77880417109023</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -25365,25 +27381,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0518938025516044</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1811032125607424</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3343177626604485</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2278021127022407</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.37041589990471</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05332242868306164</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1816258364521582</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3453322876362733</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.23091649720854</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>28.3402665347294</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -25890,13 +27942,13 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06127280920212395</v>
+        <v>0.06127280920212397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1963197820635787</v>
+        <v>0.1963197820635788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6336121150080559</v>
+        <v>0.6336121150080561</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.2475334506730837</v>
@@ -25941,25 +27993,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>33.68024536253559</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06088925984998305</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1955811040767273</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6386735704534275</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2467574919834919</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>33.68024536253559</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -26029,25 +28117,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06316102908615802</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2004626074277202</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.609058959195432</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2513185808613402</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>34.68710238837169</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0631356382532131</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.2004086040533856</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.6088736089791105</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2512680605513026</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>34.67915800431527</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -26364,19 +28488,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0849450209813843</v>
+        <v>0.08474272688409751</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2493845363045045</v>
+        <v>0.249299617901787</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.4951528504449942</v>
+        <v>0.4951723583290223</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2914532912515903</v>
+        <v>0.2911060406176716</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>44.68454917459162</v>
+        <v>44.67574271554038</v>
       </c>
     </row>
     <row r="17">
@@ -26571,25 +28695,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06436263094966592</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2024447274118647</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6147466141784622</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2536979127814534</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>34.98042106850195</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.06436263094966592</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2024447274118647</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6147466141784622</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2536979127814534</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>34.98042106850195</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -27094,7 +29254,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05385333951260131</v>
+        <v>0.05385333951260128</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.184498604736672</v>
@@ -27103,10 +29263,10 @@
         <v>0.5055824506949936</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2320632230936245</v>
+        <v>0.2320632230936244</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>30.89535572149786</v>
+        <v>30.89535572149785</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -27124,10 +29284,10 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05385249296040216</v>
+        <v>0.05385249296040218</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1844994198595292</v>
+        <v>0.1844994198595293</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>0.5055894729173188</v>
@@ -27145,25 +29305,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05333434849253286</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1836392004221472</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.5090276832651499</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2309423055495308</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.73537468940822</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05333434849253286</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1836392004221472</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5090276832651499</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2309423055495308</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.73537468940822</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -27233,25 +29429,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05647583250647753</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1889599991280345</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4916728426443628</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2376464443379651</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>31.72251891527469</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0564866539691606</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1890048894648294</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.4918100429896764</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2376692112351968</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>31.72947986933249</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -27538,19 +29770,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04918922171090695</v>
+        <v>0.04915337021596024</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1730868966773541</v>
+        <v>0.1730217786590851</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4715989179850958</v>
+        <v>0.4710012098584723</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.221786432657426</v>
+        <v>0.2217055935603796</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>29.22792849785858</v>
+        <v>29.22119598653686</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -27568,19 +29800,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05309608817156337</v>
+        <v>0.0528672310085905</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1845122591377692</v>
+        <v>0.1834971863294716</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.4868184579009778</v>
+        <v>0.4852168758078344</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2304258843349926</v>
+        <v>0.2299287520267757</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>31.11217673043763</v>
+        <v>30.95283056154246</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -27775,25 +30007,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05700054659152098</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1898407677307632</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4945756828900943</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2387478724334962</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.85292193832749</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.0556301550259614</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1908059756340408</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.5416032907797917</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.235860456681406</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>31.93652788079907</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">

--- a/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03343121722446387</v>
+        <v>0.03341064842908602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1382773752769606</v>
+        <v>0.1382051149702713</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1886522513720836</v>
+        <v>0.1885355638377754</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1828420554042857</v>
+        <v>0.1827857993091532</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>21.90206821070557</v>
+        <v>21.88757235384928</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1192,19 +1192,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03724819623019621</v>
+        <v>0.0368108745961055</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1512053044498058</v>
+        <v>0.1503964037111316</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2106844629905431</v>
+        <v>0.212278645817269</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1929979176835756</v>
+        <v>0.1918616027143146</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.08316947941429</v>
+        <v>24.10112997270878</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05170265941495184</v>
+        <v>0.0516799366631526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1682409614309386</v>
+        <v>0.1689330188328717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3466388617904527</v>
+        <v>0.34625148435272</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2273821879896309</v>
+        <v>0.2273322165095669</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.23747771850741</v>
+        <v>26.34952887275096</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.05646677189902417</v>
+        <v>0.05636122196412943</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.182689815793312</v>
+        <v>0.1821553983477377</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3630989674183793</v>
+        <v>0.364111882688522</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2376273803647723</v>
+        <v>0.2374051852090207</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>28.57367184574825</v>
+        <v>28.47915455819305</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.449978147688152</v>
+        <v>0.4837106163782679</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5958099404310947</v>
+        <v>0.6126891633185556</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2411405076767453</v>
+        <v>0.2470062202783311</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6708041053006101</v>
+        <v>0.6954930742849047</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.00076647885992</v>
+        <v>28.02398405917912</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2507,19 +2507,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.108755947341943</v>
+        <v>1.083876832350345</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.9799492343911195</v>
+        <v>0.9686296298130519</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3808148456964601</v>
+        <v>0.375193397506086</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.052974808503006</v>
+        <v>1.041094055477383</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>45.95990433115024</v>
+        <v>45.25118228871472</v>
       </c>
     </row>
     <row r="14">
@@ -2539,19 +2539,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8401412863184713</v>
+        <v>0.8521792109133791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7653807663347485</v>
+        <v>0.7907128706148484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4125141219664224</v>
+        <v>0.41012039803817</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.916592213756189</v>
+        <v>0.9231355322558975</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.53480778869813</v>
+        <v>35.06315436075247</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2565,23 +2565,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.60214959963453</v>
+        <v>1.561735876901704</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>1.167720287933767</v>
+        <v>1.124206494545019</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5808676580450568</v>
+        <v>0.5680564451136172</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.26576048272749</v>
+        <v>1.249694313382958</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>52.84603942628144</v>
+        <v>51.96992117707736</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2613,7 +2613,7 @@
         <v>0.6120432838567771</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>21.01166117868812</v>
+        <v>21.01166117868811</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -3789,19 +3789,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4295749516314249</v>
+        <v>0.4345546882368168</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5869072836695876</v>
+        <v>0.5900744543700709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2337122678474126</v>
+        <v>0.2354434960031143</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6554196759568826</v>
+        <v>0.6592076214947888</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.94132809763001</v>
+        <v>26.13104761365046</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.4754092092422783</v>
+        <v>0.4794937026739445</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6108912999790324</v>
+        <v>0.6156453858022384</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2387929253931844</v>
+        <v>0.2408475496385665</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.6894992452804268</v>
+        <v>0.6924548380031325</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.21221210663563</v>
+        <v>26.44034702035754</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3851,19 +3851,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2109671409972265</v>
+        <v>0.2144526518025892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3118926309036519</v>
+        <v>0.3141304488443115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1905564527657889</v>
+        <v>0.1918523247738438</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4593115946688332</v>
+        <v>0.463090327908702</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>13.47634028405003</v>
+        <v>13.55449026919958</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3881,19 +3881,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.7358491926865257</v>
+        <v>0.7459076885895907</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7235783156970829</v>
+        <v>0.7232519802996272</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.351595482480651</v>
+        <v>0.3519569845818983</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8578165262377064</v>
+        <v>0.8636594749029218</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>30.55010526561998</v>
+        <v>30.62652720291618</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3946,7 +3946,7 @@
         <v>0.3168058384402216</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4653295406880976</v>
+        <v>0.4653295406880977</v>
       </c>
       <c r="N15" s="8" t="n">
         <v>0.2331582437945676</v>
@@ -3955,7 +3955,7 @@
         <v>0.5628550776534059</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>19.74399893897816</v>
+        <v>19.74399893897817</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -5101,19 +5101,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9995190774827275</v>
+        <v>1.00471101887801</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8809985866341078</v>
+        <v>0.8826811330653667</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3190137401017215</v>
+        <v>0.3194788332254313</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9997595098236013</v>
+        <v>1.002352741742152</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>39.64636446219231</v>
+        <v>39.731786626052</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.4194704663721918</v>
+        <v>0.4273629861840522</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6001103455701376</v>
+        <v>0.6025844643010891</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2216734605416871</v>
+        <v>0.2225442102819787</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.6476653969235904</v>
+        <v>0.6537300560507006</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.62767924897509</v>
+        <v>24.78390072631244</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0001527972273082171</v>
+        <v>0.0001398578752526366</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01143306630449052</v>
+        <v>0.0109214063712496</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004093996644586861</v>
+        <v>0.003914246116135152</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01236111755903232</v>
+        <v>0.01182615217442413</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4084373348226487</v>
+        <v>0.3905425109376747</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.03106941761849261</v>
+        <v>0.03200709416774628</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1391098272288295</v>
+        <v>0.1378651986628733</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.06151982725022181</v>
+        <v>0.06164389506839357</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1762651911708395</v>
+        <v>0.1789052659027852</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>5.788286085715125</v>
+        <v>5.76417808455167</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6411,19 +6411,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07638581789935785</v>
+        <v>0.07658944853943661</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1835141978038328</v>
+        <v>0.1836325582950724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.109293971400585</v>
+        <v>2.111356614395695</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2763798435113491</v>
+        <v>0.2767479874171384</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.17672346932358</v>
+        <v>35.17816215304095</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6441,19 +6441,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06773090847555097</v>
+        <v>0.06781823804752642</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1738882123003932</v>
+        <v>0.1740234267735215</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.031191664451474</v>
+        <v>2.032546691935583</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2602516253081832</v>
+        <v>0.2604193503707557</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>34.0435347974547</v>
+        <v>34.05757964138278</v>
       </c>
     </row>
     <row r="14">
@@ -6473,19 +6473,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1218268729901247</v>
+        <v>0.1224532457992562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2614820396031316</v>
+        <v>0.2621478076738443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.474056989321051</v>
+        <v>2.478834434272046</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3490370653528429</v>
+        <v>0.3499332019103877</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>44.53180389885658</v>
+        <v>44.5913337586386</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06629056527920593</v>
+        <v>0.06625620407784365</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1915375578435032</v>
+        <v>0.1912670368644265</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.901940387653501</v>
+        <v>1.902746508453199</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2574695424301794</v>
+        <v>0.2574028051087316</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>37.17744107879232</v>
+        <v>37.13298713854047</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7751,19 +7751,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.07754051551971407</v>
+        <v>0.07753774006204009</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2031979114502067</v>
+        <v>0.2031942495939582</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.160463227953961</v>
+        <v>2.160433573233221</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2784609766551034</v>
+        <v>0.2784559930438562</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>38.80496540664177</v>
+        <v>38.80437063211963</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7783,19 +7783,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07306561677706112</v>
+        <v>0.07340378738298402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2131589925259147</v>
+        <v>0.2136019639138902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.005825600911527</v>
+        <v>2.012528948091113</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2703065237412171</v>
+        <v>0.2709313333355594</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>40.92348174408282</v>
+        <v>40.96287854613907</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7813,19 +7813,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.144336543401025</v>
+        <v>0.1436427006555076</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3301635461986457</v>
+        <v>0.3300838583814666</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.360149453531427</v>
+        <v>1.364317663602063</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.379916495299987</v>
+        <v>0.3790022436022082</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>67.76211543166151</v>
+        <v>67.71837450046445</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7845,13 +7845,13 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09738206773070369</v>
+        <v>0.09738206773070372</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.2207523619490231</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.39191667110953</v>
+        <v>2.391916671109531</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>0.3120610000155478</v>
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.08417538293233474</v>
+        <v>0.08417538293233476</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>0.2164998312154916</v>
@@ -9031,19 +9031,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07630212372643243</v>
+        <v>0.07634143097434205</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2139123105728451</v>
+        <v>0.2139347887987639</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.160494673700265</v>
+        <v>2.160660145437312</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2762283905148644</v>
+        <v>0.2762995312597219</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>40.3205573268155</v>
+        <v>40.32254738482865</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9061,19 +9061,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.07413983618120695</v>
+        <v>0.07413950795532617</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2151475342421956</v>
+        <v>0.215140274785876</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.10386122052125</v>
+        <v>2.103845714710497</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2722863128789381</v>
+        <v>0.2722857101563102</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>40.72675643253763</v>
+        <v>40.72580064890713</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06907545962375014</v>
+        <v>0.06995461676491495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2116535359355531</v>
+        <v>0.2131863741326089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.579575420140652</v>
+        <v>1.580387815954285</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.26282210642134</v>
+        <v>0.264489350948039</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.22102049825487</v>
+        <v>42.52535622256002</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9119,23 +9119,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.127157105433636</v>
+        <v>0.1131953429214891</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2910452193901154</v>
+        <v>0.2786903278678595</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.136909664708367</v>
+        <v>1.285367523319278</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.356590949736019</v>
+        <v>0.3364451558894689</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>63.5453886505812</v>
+        <v>58.44028041831636</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10341,19 +10341,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6629610737002104</v>
+        <v>0.6623843702288218</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3911438870070676</v>
+        <v>0.3906956676037835</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6033129366490475</v>
+        <v>0.603008042405523</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.814224215864531</v>
+        <v>0.8138699959015702</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>20.01454134984294</v>
+        <v>19.99741797200817</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10371,19 +10371,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6449413991426728</v>
+        <v>0.6443917535924693</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3811735516066571</v>
+        <v>0.3814107009804614</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5961966205508522</v>
+        <v>0.5959123293708292</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8030824360815475</v>
+        <v>0.8027401532204984</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>19.44849522647873</v>
+        <v>19.4611078823345</v>
       </c>
     </row>
     <row r="14">
@@ -10403,19 +10403,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6164608076161195</v>
+        <v>0.6142914718091105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4469360144833293</v>
+        <v>0.4552426274651957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5879592704952546</v>
+        <v>0.587036179104248</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7851501815679084</v>
+        <v>0.7837674858075643</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>22.36803448196357</v>
+        <v>22.728390221047</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10433,19 +10433,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.7241046025222719</v>
+        <v>0.724042011466158</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.471626206099632</v>
+        <v>0.471546147832866</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6333973997830346</v>
+        <v>0.6333578339484077</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8509433603491315</v>
+        <v>0.8509065821029698</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>23.12942007252616</v>
+        <v>23.12695736201627</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10465,19 +10465,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6359504023756704</v>
+        <v>0.63595040237567</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4329166600706872</v>
+        <v>0.4329166600706871</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6080079217702902</v>
+        <v>0.6080079217702899</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7974649850467859</v>
+        <v>0.7974649850467856</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>21.94459175025933</v>
+        <v>21.94459175025931</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5199829564961944</v>
+        <v>0.5199829564961943</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3553396967908581</v>
@@ -11663,7 +11663,7 @@
         <v>0.7210984374523317</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.47184159418082</v>
+        <v>19.47184159418081</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11713,19 +11713,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6181712481096082</v>
+        <v>0.6152738051237669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3801697282728531</v>
+        <v>0.3800349338395541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5991671816538353</v>
+        <v>0.5978325495735759</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7862386712122523</v>
+        <v>0.7843939094127178</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>20.09720035753277</v>
+        <v>20.09840198380451</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.7391163084918951</v>
+        <v>0.7437767869860594</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5472771535670573</v>
+        <v>0.5516084848548559</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6307853716767468</v>
+        <v>0.6321979164501226</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8597187380137152</v>
+        <v>0.8624249457118338</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>26.63689622325132</v>
+        <v>26.80785044898454</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -12967,7 +12967,7 @@
         <v>0.3497149727479014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3097367454425243</v>
+        <v>0.3097367454425244</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7512270789555229</v>
@@ -12991,19 +12991,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6312361025602446</v>
+        <v>0.631225350042227</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3697733692614512</v>
+        <v>0.3697491614035309</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3309768395038957</v>
+        <v>0.3309670495449685</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7945036831634229</v>
+        <v>0.7944969163201497</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>19.32939027207764</v>
+        <v>19.32856265786406</v>
       </c>
     </row>
     <row r="14">
@@ -13023,19 +13023,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7094116557997947</v>
+        <v>0.7075008395485363</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3817828398852087</v>
+        <v>0.3811222131197788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.362394931052712</v>
+        <v>0.3617510667029255</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8422657869103997</v>
+        <v>0.8411306911226912</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.33602926827216</v>
+        <v>19.3147887084238</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13053,19 +13053,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.8128682574591349</v>
+        <v>0.8169821383699789</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.420574786604711</v>
+        <v>0.4225167677522932</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3938843868540222</v>
+        <v>0.3952553890082091</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9015920682099721</v>
+        <v>0.9038706424981281</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>20.44701033923354</v>
+        <v>20.50589126830364</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13118,7 +13118,7 @@
         <v>0.7775381767911175</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4906458020399133</v>
+        <v>0.4906458020399134</v>
       </c>
       <c r="N15" s="8" t="n">
         <v>0.3791778148769429</v>
@@ -13127,7 +13127,7 @@
         <v>0.8817812522338618</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>24.37178862781657</v>
+        <v>24.37178862781658</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -14181,19 +14181,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05493157372344898</v>
+        <v>0.05585033387570495</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1946005112456486</v>
+        <v>0.1963673567643169</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2994456682335137</v>
+        <v>0.3017468198205178</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2343748572766477</v>
+        <v>0.2363267523487448</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>32.27395909412944</v>
+        <v>32.5764379464436</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14225,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0259937482295521</v>
+        <v>0.02602090667160988</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1294285612107738</v>
+        <v>0.1295965044576265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2529678183571574</v>
+        <v>0.2538264755657613</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1612257678832764</v>
+        <v>0.1613099707755534</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>20.82725247574522</v>
+        <v>20.85541841608295</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -14269,19 +14269,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04129439572284376</v>
+        <v>0.04099572995453754</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1669464145254709</v>
+        <v>0.1664311730998728</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2923729503613267</v>
+        <v>0.291775457910137</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2032102254386914</v>
+        <v>0.2024740229129098</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.36340485551785</v>
+        <v>27.2770782836816</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15293,19 +15293,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07761968847968433</v>
+        <v>0.07764919526711218</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2163157608605988</v>
+        <v>0.2163573338041818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6985621855290258</v>
+        <v>0.6988250327003555</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2786031020640013</v>
+        <v>0.2786560519118725</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>37.0443780119176</v>
+        <v>37.05005633889694</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15323,19 +15323,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0758022248202514</v>
+        <v>0.07580105542521469</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2093260143364631</v>
+        <v>0.2092742559840365</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.7242430375483402</v>
+        <v>0.7241912931799596</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2753220383846005</v>
+        <v>0.2753199146905554</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>35.45535733184324</v>
+        <v>35.44650679933994</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1164020649343353</v>
+        <v>0.1122487801423886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2709066983380707</v>
+        <v>0.2621057672423709</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5363751799456213</v>
+        <v>0.5222479845847555</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.341177468386081</v>
+        <v>0.3350354908698309</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>51.79998959944453</v>
+        <v>52.4194269081152</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15385,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08275977346395665</v>
+        <v>0.08384538057359517</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.234958415702602</v>
+        <v>0.2368876311030566</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4947878353315975</v>
+        <v>0.4934571830090068</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2876799844687785</v>
+        <v>0.2895606682089181</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>42.53742857632694</v>
+        <v>42.9137666700659</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -16513,19 +16513,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0446252120223534</v>
+        <v>0.04474526110488306</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1637964393585098</v>
+        <v>0.1640483354530301</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4402380464338818</v>
+        <v>0.4407038072839</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2112468035790208</v>
+        <v>0.2115307568768265</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.82056713447206</v>
+        <v>27.86467872600065</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16557,19 +16557,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08906725270168547</v>
+        <v>0.08876203820092388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2490803243653591</v>
+        <v>0.2491170168498955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5599238325623944</v>
+        <v>0.5608063440561529</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2984413723023091</v>
+        <v>0.2979295859778345</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.56750501795501</v>
+        <v>42.54672259027149</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17535,19 +17535,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08952278074865005</v>
+        <v>0.089445687059867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2396528139143252</v>
+        <v>0.2395704078995859</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6676984912831733</v>
+        <v>0.666842311903317</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2992035774329078</v>
+        <v>0.2990747181890622</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>41.9864709560865</v>
+        <v>41.97543080711509</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17579,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06938524630964751</v>
+        <v>0.07000791212826356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2050825269014211</v>
+        <v>0.2055965801388561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6906661808700773</v>
+        <v>0.6931945092932621</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2634107938366375</v>
+        <v>0.2645900832009083</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.18164942090596</v>
+        <v>35.30964133252468</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18557,19 +18557,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9867531446941904</v>
+        <v>0.9866992791368985</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7934971377972069</v>
+        <v>0.7933702974170666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3140584376803578</v>
+        <v>0.3140172680388629</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9933544909518406</v>
+        <v>0.9933273776237613</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>41.90099516540165</v>
+        <v>41.8965790905962</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1571503401508056</v>
+        <v>0.1517020455226395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2747902625796993</v>
+        <v>0.2701461291821238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1290970824945417</v>
+        <v>0.1262948069856061</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3964219218847586</v>
+        <v>0.3894894677942389</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.83362244122513</v>
+        <v>10.6760298652303</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2189462469363217</v>
+        <v>0.2189462469363219</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3724644478340363</v>
+        <v>0.3724644478340365</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0.1520561934910422</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4679169231138384</v>
+        <v>0.4679169231138385</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>14.79142500838071</v>
@@ -19579,19 +19579,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6994937091352463</v>
+        <v>0.6903712513455025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6539073097867069</v>
+        <v>0.6513554154122719</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2475004298674888</v>
+        <v>0.2460048055107659</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8363574051416334</v>
+        <v>0.8308858232907229</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>29.26654636678016</v>
+        <v>28.99372247338612</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2068385744096295</v>
+        <v>0.207499356700652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2753216676475862</v>
+        <v>0.2753549741832928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1807315402455759</v>
+        <v>0.1810223324801555</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4547950905733586</v>
+        <v>0.4555209728438988</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.1702481957076</v>
+        <v>12.16896259101762</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19676,10 +19676,10 @@
         <v>0.2400590703548713</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6131176449332291</v>
+        <v>0.613117644933229</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>22.11215907857712</v>
+        <v>22.11215907857711</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -20601,19 +20601,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2.04168598706849</v>
+        <v>2.038895981651102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.135788543255196</v>
+        <v>1.135323454224069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4462064039893252</v>
+        <v>0.4456807970394208</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.428875777339825</v>
+        <v>1.427899149677981</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>59.95381891969539</v>
+        <v>59.82666687187569</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20645,19 +20645,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3235564422406498</v>
+        <v>0.3222916843528218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3366813590247192</v>
+        <v>0.336036784114378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2552618286947907</v>
+        <v>0.2547893596803958</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5688202196130601</v>
+        <v>0.5677073932518598</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.24908920687595</v>
+        <v>15.23028918190462</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7083455825881219</v>
+        <v>0.708345582588122</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.717716393145399</v>
@@ -21713,19 +21713,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04053962248513099</v>
+        <v>0.0405025595835332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.151668881662463</v>
+        <v>0.151579797346281</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4618784447147169</v>
+        <v>0.4614225436338039</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2013445367650461</v>
+        <v>0.2012524772109233</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.14670461137971</v>
+        <v>26.13033379968424</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21739,23 +21739,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04347681332119762</v>
+        <v>0.04387348815433337</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1591785874424232</v>
+        <v>0.1555438957396494</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.4671449600295897</v>
+        <v>0.4657200181143785</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2085109429291365</v>
+        <v>0.2094599917748814</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.16063086579792</v>
+        <v>26.69294726657307</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21775,19 +21775,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06641098545366612</v>
+        <v>0.0661087711433723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2065802179414353</v>
+        <v>0.2059298380635033</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5255102944716178</v>
+        <v>0.5263818145242865</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2577032895670254</v>
+        <v>0.2571162599746898</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>34.52947194018318</v>
+        <v>34.40221937299917</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21805,19 +21805,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06888983091168259</v>
+        <v>0.06855451411997011</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2122663576571036</v>
+        <v>0.2115918254958882</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5244718141389348</v>
+        <v>0.5237289108807859</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2624687236828087</v>
+        <v>0.2618291697270763</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.60891490916611</v>
+        <v>35.48936984870322</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -21837,13 +21837,13 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04373019814954224</v>
+        <v>0.04373019814954225</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.1681977594214826</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4994957172115682</v>
+        <v>0.4994957172115681</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>0.2091176657997651</v>
@@ -21867,16 +21867,16 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04585944320313546</v>
+        <v>0.04585944320313545</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1698484134497991</v>
+        <v>0.169848413449799</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.5011990140678592</v>
+        <v>0.501199014067859</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2141481804805623</v>
+        <v>0.2141481804805622</v>
       </c>
       <c r="P15" s="8" t="n">
         <v>28.69107725816247</v>
@@ -23023,19 +23023,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08149734151693358</v>
+        <v>0.08148066264742652</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2494164925721984</v>
+        <v>0.2493928929643696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.101920034047777</v>
+        <v>0.1019118388521898</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2854773923044233</v>
+        <v>0.2854481785673654</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>10.13428543339474</v>
+        <v>10.13335527390794</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23053,19 +23053,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.07590048099670096</v>
+        <v>0.07528709703614346</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2361955147545563</v>
+        <v>0.2353051446995849</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.09546385106913652</v>
+        <v>0.09507639036690932</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2755004192314432</v>
+        <v>0.2743849431658805</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>9.551562988351805</v>
+        <v>9.506283895564692</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1293605887761267</v>
+        <v>0.130522177964542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2306942911165943</v>
+        <v>0.2337920567770494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1062344343547258</v>
+        <v>0.1071377067696054</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3596673307045369</v>
+        <v>0.3612785323881589</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>9.280080574664012</v>
+        <v>9.399469641773553</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1246045867881899</v>
+        <v>0.1268137279194322</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2410645643059013</v>
+        <v>0.2451307001953667</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1061686976236465</v>
+        <v>0.1074280300136011</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3529937489364223</v>
+        <v>0.3561091516928935</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>9.68132509679551</v>
+        <v>9.837752906320588</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24334,19 +24334,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1715819122550655</v>
+        <v>0.1714117507302845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3062361491278026</v>
+        <v>0.3062016287260386</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1885592925807058</v>
+        <v>0.1884696833268988</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4142244708549526</v>
+        <v>0.4140190221841075</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.16998795898875</v>
+        <v>14.17037131289796</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24364,19 +24364,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1758072454313465</v>
+        <v>0.1743969653287109</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3008834398042822</v>
+        <v>0.300438722523684</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1935552674448443</v>
+        <v>0.1929567176993543</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.4192937459959861</v>
+        <v>0.4176086269807065</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.10140990458558</v>
+        <v>14.08813212771124</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24396,19 +24396,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2759797047736096</v>
+        <v>0.2781015046881249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2842250675167642</v>
+        <v>0.2949910679622967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2299297103611329</v>
+        <v>0.232944344933334</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5253377054558426</v>
+        <v>0.527353301580757</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>13.41250784750493</v>
+        <v>13.81362418316913</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24426,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.2625962978364199</v>
+        <v>0.264211112439818</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3050714149765682</v>
+        <v>0.3079278080864799</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2306609140821033</v>
+        <v>0.2316828562218222</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5124415067463016</v>
+        <v>0.5140147006067219</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>14.20808451620862</v>
+        <v>14.31590631411213</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24458,16 +24458,16 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2645798481625639</v>
+        <v>0.2645798481625638</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3681864497092693</v>
+        <v>0.3681864497092692</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0.2177461221075478</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5143732576277308</v>
+        <v>0.5143732576277307</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>16.39008876029631</v>
@@ -24488,19 +24488,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.2306651477487834</v>
+        <v>0.2304243756355007</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3084647530879251</v>
+        <v>0.3115088624520147</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2206663029116624</v>
+        <v>0.2211477567780046</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4802761161548462</v>
+        <v>0.4800253906154347</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>14.44658815591912</v>
+        <v>14.57129602434061</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -25645,19 +25645,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1242107854785535</v>
+        <v>0.124345595883682</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2743032039597054</v>
+        <v>0.2744465325772896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1414039395489143</v>
+        <v>0.1414851526649196</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3524355054170245</v>
+        <v>0.3526267089766202</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>12.44447475111084</v>
+        <v>12.45415756708801</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25675,19 +25675,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1121527485461064</v>
+        <v>0.1119415049263099</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2618990097085686</v>
+        <v>0.2615722695038966</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1300663706796963</v>
+        <v>0.1299568378319441</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.33489214464676</v>
+        <v>0.3345766054677313</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>11.92221610471763</v>
+        <v>11.90998069344183</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25707,19 +25707,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1646134016204974</v>
+        <v>0.1629844319313273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2349501475782229</v>
+        <v>0.2299172530707571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1573111854320542</v>
+        <v>0.1561047494448432</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4057257714522179</v>
+        <v>0.4037133041297095</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.64373824506554</v>
+        <v>10.45967126561794</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25737,19 +25737,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1702805015212024</v>
+        <v>0.1702855625269747</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2266240565914003</v>
+        <v>0.2239784621415352</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1597918085634565</v>
+        <v>0.1596512940089139</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4126505804202902</v>
+        <v>0.4126567126886156</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>10.35889510044234</v>
+        <v>10.27323840712979</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -26958,19 +26958,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03072112133866145</v>
+        <v>0.03031952747787487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.139715157689419</v>
+        <v>0.1392556064883088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1934846680600333</v>
+        <v>0.1930290081584785</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1752744172395431</v>
+        <v>0.1741250340355311</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>21.00733619153186</v>
+        <v>20.93328153917856</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26988,19 +26988,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02253270135584357</v>
+        <v>0.02260913416130031</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1181753101444862</v>
+        <v>0.1185740165567534</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.222614422672141</v>
+        <v>0.2236029672101056</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1501089649416169</v>
+        <v>0.1503633404833117</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.86516601004685</v>
+        <v>18.92903073422309</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27020,19 +27020,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.393410968779853e-05</v>
+        <v>2.316919878778751e-05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003995963775932933</v>
+        <v>0.004045501149636322</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005793609557541244</v>
+        <v>0.006110417487085179</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004892249961704587</v>
+        <v>0.004813439392761429</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5798389917493669</v>
+        <v>0.6108823285447867</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27050,19 +27050,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1033881603412931</v>
+        <v>0.1041243736307793</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2750106175036214</v>
+        <v>0.2767859860325356</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5927462126577994</v>
+        <v>0.595335344290141</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3215402934956878</v>
+        <v>0.3226830854426356</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>41.61155224409174</v>
+        <v>41.7911711207741</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28272,19 +28272,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04443426621613842</v>
+        <v>0.0439806623983476</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1778925246580386</v>
+        <v>0.1770153111247019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3967243880297732</v>
+        <v>0.3965585625338691</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2107943695076755</v>
+        <v>0.209715670369068</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>31.83893272222154</v>
+        <v>31.69227822667503</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28302,19 +28302,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05607651861335197</v>
+        <v>0.0561863403526963</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1993722003142548</v>
+        <v>0.1999146386284857</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2932468746426093</v>
+        <v>0.2940126528286122</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2368048112124244</v>
+        <v>0.237036580199547</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>33.54442772157671</v>
+        <v>33.65480047708881</v>
       </c>
     </row>
     <row r="14">
@@ -28334,19 +28334,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0424118085113889</v>
+        <v>0.04125192519166989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1589341167072519</v>
+        <v>0.1568991548818961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6036431746740901</v>
+        <v>0.5981979527891724</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2059412744240185</v>
+        <v>0.203105699554862</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>28.56044538079758</v>
+        <v>28.4082964259823</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28364,19 +28364,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1051804912315037</v>
+        <v>0.1048641004769491</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2566904863657193</v>
+        <v>0.2558160481890391</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.9085873829178805</v>
+        <v>0.9157001230866899</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3243154193551451</v>
+        <v>0.3238272695079109</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>40.89585810447894</v>
+        <v>40.60364320785079</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29584,19 +29584,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03719996406730987</v>
+        <v>0.03714912507506971</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1410439856084929</v>
+        <v>0.1410119014599196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4061155286115876</v>
+        <v>0.4062474543348581</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1928729220686768</v>
+        <v>0.1927410829975532</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.25573933670881</v>
+        <v>24.26114716155877</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29614,19 +29614,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0415858679803042</v>
+        <v>0.04143773132396043</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1543727230159262</v>
+        <v>0.1543331041624847</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.4510781399180115</v>
+        <v>0.4494810425740286</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2039261336374134</v>
+        <v>0.203562598047776</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.55198455230702</v>
+        <v>26.5551987486803</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29642,53 +29642,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1155617949299559</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2721291865914028</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.5612895197618093</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3399438114305891</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>50.3208533060799</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.07141939118757457</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2253264936033748</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.5503380322768162</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.2672440667022835</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>37.97255120602962</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.09391750136004964</v>
+        <v>0.0953046868126817</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2473563867106233</v>
+        <v>0.2514466109706322</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6091633298257996</v>
+        <v>0.6107011014936825</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3064596243553947</v>
+        <v>0.3087145717530705</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>41.55902080253318</v>
+        <v>42.38640401552583</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.986281156539917</v>
+        <v>0.7196300625801086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7702690362930298</v>
+        <v>0.5596661567687988</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4874525368213654</v>
+        <v>0.4660510122776031</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9931168896660236</v>
+        <v>0.8483101217008486</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.33634912967682</v>
+        <v>23.60955476760864</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.9350823760032654</v>
+        <v>1.347528100013733</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6784491539001465</v>
+        <v>0.9583837985992432</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4623323678970337</v>
+        <v>0.6621266603469849</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9669965749697697</v>
+        <v>1.160830780094038</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.28204321861267</v>
+        <v>35.07439792156219</v>
       </c>
     </row>
   </sheetData>
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3479743599891663</v>
+        <v>0.374448150396347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4693678915500641</v>
+        <v>0.4318756759166718</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2395176142454147</v>
+        <v>0.302044689655304</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5898935158053242</v>
+        <v>0.6119216864896578</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.84585970640182</v>
+        <v>19.57818865776062</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.360662460327148</v>
+        <v>0.3877657949924469</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.044751048088074</v>
+        <v>0.3349139988422394</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5255806446075439</v>
+        <v>0.2991755306720734</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.166474371911852</v>
+        <v>0.6227084349777566</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>34.84385013580322</v>
+        <v>15.57952612638474</v>
       </c>
     </row>
   </sheetData>
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1621553152799606</v>
+        <v>0.425481766462326</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2402812242507935</v>
+        <v>0.4789296984672546</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1223410218954086</v>
+        <v>0.2980577051639557</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4026851316847452</v>
+        <v>0.6522896338761839</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.672402590513229</v>
+        <v>21.2811678647995</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4414642155170441</v>
+        <v>0.3241829574108124</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5384151339530945</v>
+        <v>0.4074574708938599</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2443399280309677</v>
+        <v>0.2647805511951447</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.664427735361073</v>
+        <v>0.5693706678525092</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>19.19414699077606</v>
+        <v>18.24943870306015</v>
       </c>
     </row>
   </sheetData>
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1071680337190628</v>
+        <v>0.09637120366096497</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2428137212991714</v>
+        <v>0.2507996261119843</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.362237691879272</v>
+        <v>0.6993932127952576</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3273652909504348</v>
+        <v>0.3104371170800376</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.76716411113739</v>
+        <v>45.56206464767456</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1206065267324448</v>
+        <v>0.05716704949736595</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.271360456943512</v>
+        <v>0.1789935082197189</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>2.157998561859131</v>
+        <v>0.7418755292892456</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3472845040200394</v>
+        <v>0.2390963184521375</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>48.83266389369965</v>
+        <v>30.85332214832306</v>
       </c>
     </row>
   </sheetData>
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>38156.5078125</v>
+        <v>0.06408257037401199</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>158.7750854492188</v>
+        <v>0.1800952702760696</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>667.9041748046875</v>
+        <v>0.6810113787651062</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>195.3369084748195</v>
+        <v>0.253145354241416</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>199.2831945419312</v>
+        <v>33.22913348674774</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2766059041023254</v>
+        <v>0.3447403013706207</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4263855814933777</v>
+        <v>0.4641609787940979</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>2.452429056167603</v>
+        <v>1.042635917663574</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5259333646977775</v>
+        <v>0.5871458944509624</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>76.1967658996582</v>
+        <v>96.09649181365967</v>
       </c>
     </row>
   </sheetData>
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.486057281494141</v>
+        <v>0.161897599697113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.339995145797729</v>
+        <v>0.3607552945613861</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.361424446105957</v>
+        <v>0.8352866768836975</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.118031463763969</v>
+        <v>0.4023650080425894</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>186.4799737930298</v>
+        <v>74.06750917434692</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>4152.24951171875</v>
+        <v>0.05742029100656509</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>62.48566436767578</v>
+        <v>0.1680389791727066</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>265.3054504394531</v>
+        <v>0.832327127456665</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>64.43795086529948</v>
+        <v>0.2396253137850112</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>199.968409538269</v>
+        <v>31.0239166021347</v>
       </c>
     </row>
   </sheetData>
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.525421619415283</v>
+        <v>2.744981527328491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8857794404029846</v>
+        <v>1.264780402183533</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9164117574691772</v>
+        <v>0.733538806438446</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.235079600436864</v>
+        <v>1.656798577778389</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>37.0271772146225</v>
+        <v>50.50934553146362</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.173657655715942</v>
+        <v>0.5788977742195129</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6971996426582336</v>
+        <v>0.5139079689979553</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8035257458686829</v>
+        <v>0.3439138233661652</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.083354815245653</v>
+        <v>0.7608533197795176</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>30.83091974258423</v>
+        <v>20.63620388507843</v>
       </c>
     </row>
   </sheetData>
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.13938307762146</v>
+        <v>1.515344977378845</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6644401550292969</v>
+        <v>0.906829833984375</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8390722870826721</v>
+        <v>0.3818318843841553</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.067418885733928</v>
+        <v>1.230993492013197</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.92742455005646</v>
+        <v>48.72940480709076</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.556334018707275</v>
+        <v>0.4470748901367188</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.8494915366172791</v>
+        <v>0.3934698402881622</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.029567003250122</v>
+        <v>0.3243231475353241</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.247531169433163</v>
+        <v>0.668636590485982</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.8625739812851</v>
+        <v>17.58894175291061</v>
       </c>
     </row>
   </sheetData>
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.363634347915649</v>
+        <v>1.080305933952332</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7354475855827332</v>
+        <v>0.746746301651001</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5621376633644104</v>
+        <v>0.5135473608970642</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.167747553161919</v>
+        <v>1.039377666660359</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.03950119018555</v>
+        <v>29.58497107028961</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.9915982484817505</v>
+        <v>0.6307218670845032</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5722053647041321</v>
+        <v>0.5380802750587463</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4706364870071411</v>
+        <v>0.4155571460723877</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9957902632993307</v>
+        <v>0.7941799966534685</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.73368847370148</v>
+        <v>23.58664721250534</v>
       </c>
     </row>
   </sheetData>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04352724179625511</v>
+        <v>0.05563845857977867</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1655806452035904</v>
+        <v>0.1777241080999374</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3727883398532867</v>
+        <v>0.6713160872459412</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2086318331325666</v>
+        <v>0.2358780587078388</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.654137134552</v>
+        <v>30.89361190795898</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05489815026521683</v>
+        <v>0.06046900525689125</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1838959455490112</v>
+        <v>0.1935493797063828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5261064767837524</v>
+        <v>0.7023099660873413</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2343035430061117</v>
+        <v>0.2459044636782571</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.74494302272797</v>
+        <v>34.52089130878448</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0854189544916153</v>
+        <v>0.07778804004192352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2422985583543777</v>
+        <v>0.212459072470665</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5877055525779724</v>
+        <v>0.979556143283844</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.292265212592288</v>
+        <v>0.2789050735320595</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.84078180789948</v>
+        <v>36.5378350019455</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2418987303972244</v>
+        <v>0.4588562846183777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2896324098110199</v>
+        <v>0.5721238851547241</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1488513797521591</v>
+        <v>0.3200378715991974</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4918320144086031</v>
+        <v>0.6773893154002192</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.29037067294121</v>
+        <v>25.19033551216125</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5628780126571655</v>
+        <v>0.3639403581619263</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5137189626693726</v>
+        <v>0.3972161114215851</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3142221868038177</v>
+        <v>0.2973834872245789</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7502519661134954</v>
+        <v>0.6032746954430679</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.65747475624084</v>
+        <v>18.10429692268372</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3779879510402679</v>
+        <v>0.4521939754486084</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3578169643878937</v>
+        <v>0.5040480494499207</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2776361703872681</v>
+        <v>0.3679244816303253</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6148072470622544</v>
+        <v>0.6724536976243111</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.98211228847504</v>
+        <v>23.28241914510727</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05184994637966156</v>
+        <v>0.0733383446931839</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1807412207126617</v>
+        <v>0.2111957371234894</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4590275287628174</v>
+        <v>0.8326035141944885</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2277058329943736</v>
+        <v>0.2708105328327979</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.21382975578308</v>
+        <v>34.43302810192108</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04549043625593185</v>
+        <v>0.07513955980539322</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1674795895814896</v>
+        <v>0.1998598277568817</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3709402084350586</v>
+        <v>0.8432377576828003</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2132848711370121</v>
+        <v>0.2741159605083097</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.80674588680267</v>
+        <v>33.01509022712708</v>
       </c>
     </row>
   </sheetData>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07934484630823135</v>
+        <v>0.07759986817836761</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2162738442420959</v>
+        <v>0.2214254140853882</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8518072366714478</v>
+        <v>0.9529139995574951</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2816821725069433</v>
+        <v>0.2785675289375408</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.98228192329407</v>
+        <v>38.28812837600708</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07019833475351334</v>
+        <v>0.1386463195085526</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2067485451698303</v>
+        <v>0.294338196516037</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6797717809677124</v>
+        <v>1.243705153465271</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2649496834372771</v>
+        <v>0.3723524130559013</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.30507683753967</v>
+        <v>44.57549154758453</v>
       </c>
     </row>
   </sheetData>
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0511602871119976</v>
+        <v>0.1240057721734047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.178598627448082</v>
+        <v>0.2747237682342529</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5316680669784546</v>
+        <v>1.130713105201721</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.226186399042908</v>
+        <v>0.352144533073289</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.80577945709229</v>
+        <v>41.75705015659332</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.0719616562128067</v>
+        <v>0.08683039247989655</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2079687863588333</v>
+        <v>0.2258554995059967</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6796554923057556</v>
+        <v>0.9627145528793335</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.268256698355897</v>
+        <v>0.2946699721381474</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.84400105476379</v>
+        <v>37.01745867729187</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window1/BA11 Overall Model Peformance Results.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="16" activeTab="23" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0285486451926583</v>
+        <v>0.0585582780044777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1381218472145098</v>
+        <v>0.1900767357133461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2547389123984613</v>
+        <v>0.6028780107899115</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.168963443361747</v>
+        <v>0.2419881774064132</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.15189125909536</v>
+        <v>33.46315548819099</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02844417114089064</v>
+        <v>0.0584159830275822</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1385550408160632</v>
+        <v>0.1897733157133291</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2543468867460247</v>
+        <v>0.6021938770648382</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1686539982950023</v>
+        <v>0.2416939863289575</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.238548895875</v>
+        <v>33.41497207041259</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1596,19 +1596,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03744086038078449</v>
+        <v>0.0584631562255932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1468915093251235</v>
+        <v>0.1899874978660923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2532738884673524</v>
+        <v>0.6045655263539704</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.193496409219356</v>
+        <v>0.2417915553231609</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>23.04582828085431</v>
+        <v>33.43764979906006</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1626,19 +1626,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03734882186100184</v>
+        <v>0.0345826607989226</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1466616997299325</v>
+        <v>0.1436379959382014</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2521968131424639</v>
+        <v>0.4927936964784578</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.193258432832831</v>
+        <v>0.1859641384754669</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>23.01598192011974</v>
+        <v>26.64010183673737</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04651017114520073</v>
+        <v>0.05462789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1710530072450638</v>
+        <v>0.18062502</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3842525482177734</v>
+        <v>0.6288371699999999</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.215662169017194</v>
+        <v>0.2337261038693246</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.36231780052185</v>
+        <v>31.67548775672913</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04170917347073555</v>
+        <v>0.054209445</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1607918441295624</v>
+        <v>0.17647511</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3739625811576843</v>
+        <v>0.6602629</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2042282386711876</v>
+        <v>0.232829217822569</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.91679042577744</v>
+        <v>30.82936406135559</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02544491365551949</v>
+        <v>0.029274542</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1413788795471191</v>
+        <v>0.1437563</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2042041122913361</v>
+        <v>0.19618864</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.159514618939831</v>
+        <v>0.1710980475769981</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.03249323368073</v>
+        <v>20.08513957262039</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02119104936718941</v>
+        <v>0.027560418</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1270034313201904</v>
+        <v>0.13845007</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1849002838134766</v>
+        <v>0.19465442</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1455714579414158</v>
+        <v>0.166013308116229</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.19453930854797</v>
+        <v>19.29496824741364</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2235,23 +2235,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1986643274155895</v>
+        <v>0.4955451328119277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3667050053534488</v>
+        <v>0.5929575403591215</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1600610398088079</v>
+        <v>0.3234714073229641</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4457177665469366</v>
+        <v>0.7039496663909485</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.98297307568387</v>
+        <v>26.61015344870506</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1900658202142755</v>
+        <v>0.4696361314668862</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3628372671234399</v>
+        <v>0.5411034530526675</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.155762881537678</v>
+        <v>0.322087891304826</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4359653887802052</v>
+        <v>0.6853000302545493</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>14.92023124199898</v>
+        <v>24.32038318580435</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,23 +2907,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.482172797826763</v>
+        <v>1.450450210288923</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.432703158710439</v>
+        <v>1.073892819577066</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5379385677700375</v>
+        <v>0.5083726012718125</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.575491287766061</v>
+        <v>1.20434638301816</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>77.66809730067376</v>
+        <v>55.17340782925572</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2937,23 +2937,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.5508827589986</v>
+        <v>0.7742218544286359</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.163611078831611</v>
+        <v>0.7943656097577443</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4907623306576907</v>
+        <v>0.3936667976556558</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.245344433881085</v>
+        <v>0.8798987751034979</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>56.86729196929662</v>
+        <v>37.44716161858243</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3051,23 +3051,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3594006299972534</v>
+        <v>0.4654432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3615165650844574</v>
+        <v>0.5200866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2724275588989258</v>
+        <v>0.37230134</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5995003169284011</v>
+        <v>0.682233972997905</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.1726713180542</v>
+        <v>23.89766871929169</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3742916584014893</v>
+        <v>2.1883337</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3824870586395264</v>
+        <v>1.209807</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2828450202941895</v>
+        <v>0.80571866</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.6117938038273102</v>
+        <v>1.479301777789481</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.91469252109528</v>
+        <v>40.68152606487274</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3113,23 +3113,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1556165814399719</v>
+        <v>0.4327484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3215300738811493</v>
+        <v>0.53247446</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1350361853837967</v>
+        <v>0.19787842</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.394482675715895</v>
+        <v>0.65783615522824</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.44758889079094</v>
+        <v>22.42844551801681</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1209988966584206</v>
+        <v>0.4918932</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2383505553007126</v>
+        <v>0.6015712600000001</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1057026013731956</v>
+        <v>0.23055875</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3478489566728936</v>
+        <v>0.7013509835071321</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.36395600438118</v>
+        <v>25.13087689876556</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7196300625801086</v>
+        <v>0.7200061</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5596661567687988</v>
+        <v>0.5599605</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4660510122776031</v>
+        <v>0.46617523</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8483101217008486</v>
+        <v>0.8485317367570859</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.60955476760864</v>
+        <v>23.61852079629898</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.347528100013733</v>
+        <v>1.3403643</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.9583837985992432</v>
+        <v>0.9549264</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6621266603469849</v>
+        <v>0.6603058000000001</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.160830780094038</v>
+        <v>1.157741049184777</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.07439792156219</v>
+        <v>34.98314619064331</v>
       </c>
     </row>
   </sheetData>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2935846764036268</v>
+        <v>0.6756319041510727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4497376935763593</v>
+        <v>0.6605727796873587</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2159515915712121</v>
+        <v>0.3889312027927061</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5418345470746829</v>
+        <v>0.8219683109165904</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.1645530445216</v>
+        <v>26.37700614099208</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2310175960442371</v>
+        <v>0.8969488124724805</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3938874658598439</v>
+        <v>0.6877503541521375</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1632976837709694</v>
+        <v>0.3748690033120153</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4806428986724314</v>
+        <v>0.9470738157464182</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.74846440861567</v>
+        <v>26.45474430106123</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,53 +4219,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4150246908263855</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5269957924372931</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.29899196209285</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.6442240998491018</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>23.97229798079252</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>1.110029798250699</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.9611539963685021</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.3867663087599376</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>1.053579516814322</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>45.73630052573328</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.6746310028784992</v>
+        <v>1.287592369173224</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.7006239351246423</v>
+        <v>1.067744316435718</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2965493728271066</v>
+        <v>0.4828122564658085</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8213592410623376</v>
+        <v>1.134721273781903</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>31.47080640417204</v>
+        <v>52.57080303284361</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4363,23 +4363,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2672915160655975</v>
+        <v>0.8470149</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3166978061199188</v>
+        <v>0.72012615</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2114652395248413</v>
+        <v>0.47822225</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.517002433326573</v>
+        <v>0.9203341262944762</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.587985932827</v>
+        <v>27.66244411468506</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4393,23 +4393,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2764557003974915</v>
+        <v>1.497819</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3271864354610443</v>
+        <v>1.0778822</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2125011682510376</v>
+        <v>0.6367354</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5257905480298134</v>
+        <v>1.223854136259047</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.9766052365303</v>
+        <v>37.21992671489716</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4425,23 +4425,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0706561803817749</v>
+        <v>1.1242801</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2240268439054489</v>
+        <v>0.90301394</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08277413249015808</v>
+        <v>0.3303233</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2658123029165033</v>
+        <v>1.060320751046778</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.132942765951157</v>
+        <v>39.00067210197449</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05207492411136627</v>
+        <v>0.115349226</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1811929792165756</v>
+        <v>0.28478703</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06612375378608704</v>
+        <v>0.1070712</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2281993078678511</v>
+        <v>0.3396310140430369</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.561656296253204</v>
+        <v>10.90946942567825</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.374448150396347</v>
+        <v>0.37438273</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4318756759166718</v>
+        <v>0.43190822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.302044689655304</v>
+        <v>0.3020215</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6119216864896578</v>
+        <v>0.6118682327909385</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.57818865776062</v>
+        <v>19.57983672618866</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3877657949924469</v>
+        <v>0.3876997</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3349139988422394</v>
+        <v>0.33491534</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2991755306720734</v>
+        <v>0.29915228</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6227084349777566</v>
+        <v>0.6226553568719946</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>15.57952612638474</v>
+        <v>15.57981222867966</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1850527236681562</v>
+        <v>0.164712590868057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3521249757216268</v>
+        <v>0.3160791630177242</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1495521660105339</v>
+        <v>0.1225200805285195</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4301775490052406</v>
+        <v>0.4058479898534143</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.49852596745654</v>
+        <v>12.96583728932559</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.144471310011812</v>
+        <v>0.2043473566306577</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3008357684626207</v>
+        <v>0.3559738786531887</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1300247367058779</v>
+        <v>0.1530100216106145</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3800938173817249</v>
+        <v>0.452047958330372</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>11.56975613610136</v>
+        <v>15.9420668659235</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5535,19 +5535,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.627631989117326</v>
+        <v>1.161146097901064</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.166244380250842</v>
+        <v>1.005624472895005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4353912266078519</v>
+        <v>0.4545977805193458</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.275786811782175</v>
+        <v>1.077564892663576</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>56.70869118090637</v>
+        <v>48.97425267348222</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.510294511005913</v>
+        <v>2.492372101013046</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.116465224270856</v>
+        <v>1.41643786121864</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4145852451386147</v>
+        <v>0.5557297776652158</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.228940401730659</v>
+        <v>1.578724833849473</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>54.15219604589551</v>
+        <v>86.22527096886195</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5675,23 +5675,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1766657680273056</v>
+        <v>0.7479967</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2852470874786377</v>
+        <v>0.69561344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.135214701294899</v>
+        <v>0.42869654</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4203162714282015</v>
+        <v>0.8648680176125714</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.28216907382011</v>
+        <v>26.26822292804718</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5705,23 +5705,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1794408708810806</v>
+        <v>0.97056067</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2694877684116364</v>
+        <v>0.80212545</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1335837692022324</v>
+        <v>0.48347735</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4236046162178602</v>
+        <v>0.9851703760766392</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.69232374429703</v>
+        <v>29.12865877151489</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5737,23 +5737,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04539560899138451</v>
+        <v>0.23517247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1714261025190353</v>
+        <v>0.4365488</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06076021119952202</v>
+        <v>0.15471163</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2130624532651976</v>
+        <v>0.4849458376392266</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.076840311288834</v>
+        <v>17.06743538379669</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5767,23 +5767,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05346734076738358</v>
+        <v>0.21858373</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.176664263010025</v>
+        <v>0.3947671</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06159707903862</v>
+        <v>0.13623276</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2312300602590061</v>
+        <v>0.467529392491423</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.257665902376175</v>
+        <v>15.04623740911484</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.425481766462326</v>
+        <v>0.42549688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4789296984672546</v>
+        <v>0.47894153</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2980577051639557</v>
+        <v>0.29806086</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6522896338761839</v>
+        <v>0.6523012158809584</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.2811678647995</v>
+        <v>21.28168642520905</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3241829574108124</v>
+        <v>0.32415226</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4074574708938599</v>
+        <v>0.40735063</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2647805511951447</v>
+        <v>0.2647651</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5693706678525092</v>
+        <v>0.5693437107923061</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>18.24943870306015</v>
+        <v>18.24500113725662</v>
       </c>
     </row>
   </sheetData>
@@ -6139,23 +6139,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1155970603794046</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2262978115408346</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.430627540985773</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3399956770010534</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>39.10217858102259</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6169,23 +6169,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1155970603794046</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2262978115408345</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.430627540985773</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3399956770010534</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>39.10217858102259</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5534899127337557</v>
+        <v>0.0377063220162901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6863086270077073</v>
+        <v>0.1624442176627061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.706450122857462</v>
+        <v>0.4060850491559966</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7439690267301158</v>
+        <v>0.1941811577272371</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>174.0466344713495</v>
+        <v>29.34213757260654</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6293,23 +6293,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4011507566428459</v>
+        <v>0.0240135182357985</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5791762014379676</v>
+        <v>0.1258095011614968</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9336621884095294</v>
+        <v>0.3243433651209929</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6333646316639775</v>
+        <v>0.1549629576247129</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>179.8392331733711</v>
+        <v>24.41727899882313</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6845,19 +6845,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06362783685714821</v>
+        <v>0.0429467640776919</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1808081195065476</v>
+        <v>0.1663396522038102</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.897694321842118</v>
+        <v>0.3784164697234946</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.252245588379952</v>
+        <v>0.2072360105717438</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>35.53449289946797</v>
+        <v>31.35442111122526</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6871,23 +6871,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06456858301446498</v>
+        <v>0.0283093894208122</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1818092960285032</v>
+        <v>0.1353595873867133</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.917767001224504</v>
+        <v>0.4016059767039698</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.254103488788456</v>
+        <v>0.1682539432548676</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>35.63043018181679</v>
+        <v>25.56689718794056</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6985,23 +6985,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0901862308382988</v>
+        <v>0.041663688</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2337883114814758</v>
+        <v>0.15362224</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.131545305252075</v>
+        <v>0.6183505</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3003102243319378</v>
+        <v>0.2041168480948874</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>42.45553910732269</v>
+        <v>28.09050381183624</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7015,23 +7015,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07827994972467422</v>
+        <v>0.048648823</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2030032724142075</v>
+        <v>0.14461601</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>2.04146409034729</v>
+        <v>0.6561444400000001</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2797855423796488</v>
+        <v>0.2205647819862562</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>38.18212747573853</v>
+        <v>25.56122243404388</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7051,19 +7051,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06688712537288666</v>
+        <v>0.09669215</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1679933667182922</v>
+        <v>0.23389666</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.110226392745972</v>
+        <v>0.31293413</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.258625453837952</v>
+        <v>0.3109536176366801</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.82866072654724</v>
+        <v>41.46544337272644</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7077,23 +7077,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05917875468730927</v>
+        <v>0.07111582</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.155781015753746</v>
+        <v>0.20716462</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.062729716300964</v>
+        <v>0.2641967</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2432668384455828</v>
+        <v>0.2666754986870003</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>28.9741575717926</v>
+        <v>32.58055746555328</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09637120366096497</v>
+        <v>0.09665643</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2507996261119843</v>
+        <v>0.2511147</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6993932127952576</v>
+        <v>0.7037055</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3104371170800376</v>
+        <v>0.3108961672124254</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>45.56206464767456</v>
+        <v>45.5781489610672</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05716704949736595</v>
+        <v>0.057144713</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1789935082197189</v>
+        <v>0.17898245</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7418755292892456</v>
+        <v>0.74174803</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2390963184521375</v>
+        <v>0.2390496029211016</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>30.85332214832306</v>
+        <v>30.85112273693085</v>
       </c>
     </row>
   </sheetData>
@@ -7449,53 +7449,53 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0340642985499812</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1379577502097394</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4158478183097552</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1845651607156162</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>25.16495958264377</v>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
           <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.07218935291724661</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.2108970814093183</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>2.014266557032996</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.2686807639509137</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>40.57051994877986</v>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
-        </is>
-      </c>
       <c r="L9" s="8" t="n">
-        <v>0.07218935291724661</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2108970814093183</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.014266557032996</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2686807639509137</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>40.57051994877986</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>955.5692757260084</v>
+        <v>0.0327512329137316</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.54611136861001</v>
+        <v>0.133122852557942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>136.2462712509559</v>
+        <v>0.3809862496358938</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>30.91228357346005</v>
+        <v>0.1809730170874423</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>197.0485982628808</v>
+        <v>25.09789955858233</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2864323333653529</v>
+        <v>0.4585155394438867</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4867730452625011</v>
+        <v>0.6451054849697258</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.053701294562961</v>
+        <v>1.143597952070929</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5351937344227349</v>
+        <v>0.677137755145795</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>131.0846433784488</v>
+        <v>174.7358136541046</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07459253796934666</v>
+        <v>0.0306610346711818</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2012325355259515</v>
+        <v>0.1346623223838489</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.170364437195931</v>
+        <v>0.3566819201400951</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2731163451156789</v>
+        <v>0.1751029259355246</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>38.39955855623405</v>
+        <v>25.44812494274707</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06928826784797093</v>
+        <v>0.0437110887859886</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1941345669757389</v>
+        <v>0.1656202940343284</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>2.053979559994304</v>
+        <v>0.4883078728930201</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2632266472984278</v>
+        <v>0.209071970349898</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>37.78580334243667</v>
+        <v>31.06135941481101</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8295,23 +8295,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1049892380833626</v>
+        <v>0.046871573</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2350566983222961</v>
+        <v>0.15514866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.45207953453064</v>
+        <v>0.69176215</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3240204284969739</v>
+        <v>0.2164984358671568</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>44.07783150672913</v>
+        <v>28.35646569728852</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8325,23 +8325,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.104811429977417</v>
+        <v>0.06904391999999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2369753271341324</v>
+        <v>0.18824372</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>2.366214513778687</v>
+        <v>0.817731</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3237459343025283</v>
+        <v>0.2627620966655658</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>44.67587769031525</v>
+        <v>32.24979341030121</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1101221889257431</v>
+        <v>0.041775186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2443219125270844</v>
+        <v>0.16007435</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.272245526313782</v>
+        <v>0.23417321</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3318466346458001</v>
+        <v>0.2043897884308907</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>43.16847324371338</v>
+        <v>24.26497042179108</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.001, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1097675859928131</v>
+        <v>0.08021099</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2499699592590332</v>
+        <v>0.20191425</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.189112186431885</v>
+        <v>0.27145392</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.331311916466663</v>
+        <v>0.283215450150208</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>40.9160852432251</v>
+        <v>31.84525072574615</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06408257037401199</v>
+        <v>0.064067096</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1800952702760696</v>
+        <v>0.18011819</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6810113787651062</v>
+        <v>0.6810722</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.253145354241416</v>
+        <v>0.2531147872371588</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.22913348674774</v>
+        <v>33.23106169700623</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3447403013706207</v>
+        <v>0.34987256</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4641609787940979</v>
+        <v>0.48115098</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.042635917663574</v>
+        <v>1.0184069</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5871458944509624</v>
+        <v>0.5915002614614855</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>96.09649181365967</v>
+        <v>99.96286630630492</v>
       </c>
     </row>
   </sheetData>
@@ -8763,19 +8763,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07170041364602651</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2107091491690027</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.065944132594187</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2677693291735006</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>40.1675103959074</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8793,19 +8793,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07170041364602651</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2107091491690027</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.065944132594187</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2677693291735006</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>40.1675103959074</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.295532519518154</v>
+        <v>0.0597073438287538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4491435872374246</v>
+        <v>0.1917061058887672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.029788667677403</v>
+        <v>0.5284090255271587</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5436290274793594</v>
+        <v>0.2443508621403939</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>104.6193402697233</v>
+        <v>36.52855984532905</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.814827748451203</v>
+        <v>0.0482108142708937</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3274625756345748</v>
+        <v>0.1660433390389411</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>2.47767168060615</v>
+        <v>0.4762031503760845</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.9026780979126517</v>
+        <v>0.2195696114467886</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>44.6379885565304</v>
+        <v>32.3994915125392</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07722534864192244</v>
+        <v>0.0436053066378685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2143188320209041</v>
+        <v>0.1664950937068246</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.161192300807425</v>
+        <v>0.5068509766874637</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2778944919244036</v>
+        <v>0.2088188368846751</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.31086051537957</v>
+        <v>32.9272022883809</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07043426303888987</v>
+        <v>0.0305433981186502</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2088867204712537</v>
+        <v>0.1415752831331438</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>2.036212223199693</v>
+        <v>0.4205131741306155</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2653945422176008</v>
+        <v>0.1747666962514606</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.99898939137557</v>
+        <v>28.10151807867458</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9605,23 +9605,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0864381343126297</v>
+        <v>0.048342116</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2286201268434525</v>
+        <v>0.14882217</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.270654916763306</v>
+        <v>0.72721756</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2940036297609771</v>
+        <v>0.2198684065005294</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.97502136230469</v>
+        <v>28.36972177028656</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9635,23 +9635,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07972438633441925</v>
+        <v>0.045412447</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2190291583538055</v>
+        <v>0.1541193</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>2.205958366394043</v>
+        <v>0.7037592</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2823550713807337</v>
+        <v>0.2131019645698592</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>40.88734090328217</v>
+        <v>29.77019250392913</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9667,23 +9667,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1298612654209137</v>
+        <v>0.04247284</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2917447984218597</v>
+        <v>0.156383</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.301429867744446</v>
+        <v>0.27571988</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3603626859441939</v>
+        <v>0.2060893965139127</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>44.88885104656219</v>
+        <v>27.38216817378997</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9697,23 +9697,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09761478751897812</v>
+        <v>0.031408038</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2511629164218903</v>
+        <v>0.12832296</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.144468903541565</v>
+        <v>0.26269737</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3124336529872833</v>
+        <v>0.1772231305172427</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>41.31686091423035</v>
+        <v>21.58311754465103</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.161897599697113</v>
+        <v>0.16190037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3607552945613861</v>
+        <v>0.36075798</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8352866768836975</v>
+        <v>0.8352901</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4023650080425894</v>
+        <v>0.4023684521841829</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>74.06750917434692</v>
+        <v>74.06843304634094</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05742029100656509</v>
+        <v>0.057471074</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1680389791727066</v>
+        <v>0.16812824</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.832327127456665</v>
+        <v>0.8327367</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2396253137850112</v>
+        <v>0.239731254040673</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.0239166021347</v>
+        <v>31.03145658969879</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8225046646275814</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4586117223473177</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6702562180506753</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9069204290496391</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>22.09490071810012</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.774834050773481</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.489673810659532</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6588926423717774</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8802465852097814</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.50777126099691</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6195085732710501</v>
+        <v>5.969217590164178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4113219403596037</v>
+        <v>2.388036199702365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5823654462610296</v>
+        <v>0.9449961437255736</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7870886692559169</v>
+        <v>2.443198229813573</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.93027481957617</v>
+        <v>165.3726360453826</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10227,19 +10227,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>9.340472955208856</v>
+        <v>8.176620726245417</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.862828497359032</v>
+        <v>2.754353607450044</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.226573069859986</v>
+        <v>1.073721943657503</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>3.056218734843574</v>
+        <v>2.85947910050859</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>171.598903736907</v>
+        <v>177.8594617662047</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7036655444971238</v>
+        <v>0.3411020056477208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3897079077393877</v>
+        <v>0.3449851161537478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6189005702111535</v>
+        <v>0.2210547746198646</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8388477481027912</v>
+        <v>0.5840393870688182</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.71786653546238</v>
+        <v>17.05909550984089</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7091811737057511</v>
+        <v>0.2169213329810006</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4074361402244974</v>
+        <v>0.3403573173287195</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6241243150378889</v>
+        <v>0.190201928459003</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8421289531335157</v>
+        <v>0.4657481432931328</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.43960986822784</v>
+        <v>16.20425238345855</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10915,23 +10915,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8284599781036377</v>
+        <v>0.6531759499999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5402089357376099</v>
+        <v>0.5662146</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6941059827804565</v>
+        <v>0.38432887</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9101977686764771</v>
+        <v>0.8081930153437074</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.39525628089905</v>
+        <v>22.84516245126724</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10945,23 +10945,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.428478837013245</v>
+        <v>0.54944307</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>1.049854636192322</v>
+        <v>0.52474654</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7309330105781555</v>
+        <v>0.3550945</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.195189874878985</v>
+        <v>0.7412442688615863</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>55.07920384407043</v>
+        <v>21.92472517490387</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10977,23 +10977,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.577523946762085</v>
+        <v>0.84963053</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4112423062324524</v>
+        <v>0.7153482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6052810549736023</v>
+        <v>0.2514435</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7599499633279055</v>
+        <v>0.9217540532316064</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.6212956905365</v>
+        <v>32.21757709980011</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11007,23 +11007,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.5146126747131348</v>
+        <v>0.26697052</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4922775626182556</v>
+        <v>0.3780545</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.517358124256134</v>
+        <v>0.13324323</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.7173650916466</v>
+        <v>0.5166918958636372</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.65945619344711</v>
+        <v>14.63280022144318</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.744981527328491</v>
+        <v>2.753158</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.264780402183533</v>
+        <v>1.265181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.733538806438446</v>
+        <v>0.7339425000000001</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.656798577778389</v>
+        <v>1.659264322673991</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>50.50934553146362</v>
+        <v>50.58647394180298</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.5788977742195129</v>
+        <v>0.57912797</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5139079689979553</v>
+        <v>0.51409215</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3439138233661652</v>
+        <v>0.34402183</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7608533197795176</v>
+        <v>0.7610045777507751</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>20.63620388507843</v>
+        <v>20.64187824726105</v>
       </c>
     </row>
   </sheetData>
@@ -11383,19 +11383,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8105062543808967</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4986723995204913</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6866979874750219</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9002812085014863</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>24.00838771843201</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11413,19 +11413,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.8105062543808967</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4986723995204913</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6866979874750219</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.9002812085014863</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>24.00838771843201</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,23 +11503,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5914874014616793</v>
+        <v>8.650119374970217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3834545523784266</v>
+        <v>2.716481674696349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5883122745308804</v>
+        <v>1.089527290021814</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7690821812145171</v>
+        <v>2.941108528254307</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.96599083832854</v>
+        <v>153.3967847735471</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11533,23 +11533,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>5.5191127889248</v>
+        <v>0.46816313645483</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>1.969809201262536</v>
+        <v>0.5481199100752024</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9529099718805701</v>
+        <v>0.3163829171904913</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.349279206251313</v>
+        <v>0.6842244781172551</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>99.42484034693199</v>
+        <v>24.76869071583989</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5327141029899495</v>
+        <v>0.258039762827489</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3947702528654066</v>
+        <v>0.3537403713605961</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5225800557042285</v>
+        <v>0.2303234651578868</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7298726621746765</v>
+        <v>0.5079761439550966</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.36757744704979</v>
+        <v>17.4298358315225</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5589077579542292</v>
+        <v>0.1592974844038593</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3964044282377961</v>
+        <v>0.293853942588546</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.555486748873374</v>
+        <v>0.1681397738709169</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7476013362442775</v>
+        <v>0.3991208894606486</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.41462523734774</v>
+        <v>14.1957881198758</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12225,23 +12225,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7621976137161255</v>
+        <v>0.44699344</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4226095080375671</v>
+        <v>0.3952011</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6715346574783325</v>
+        <v>0.32424203</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8730392967765687</v>
+        <v>0.6685756803755527</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.15807235240936</v>
+        <v>17.62715578079224</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12255,23 +12255,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.9191437363624573</v>
+        <v>0.71505886</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4767380356788635</v>
+        <v>0.564835</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7407035827636719</v>
+        <v>0.3867628</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9587198424787385</v>
+        <v>0.845611532065992</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.63984978199005</v>
+        <v>22.23979234695435</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12287,23 +12287,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5997962951660156</v>
+        <v>0.2745134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3856035470962524</v>
+        <v>0.4006489</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6273159980773926</v>
+        <v>0.14585587</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7744651671741057</v>
+        <v>0.5239402577016946</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.45436191558838</v>
+        <v>15.78113287687302</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12317,23 +12317,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4315995573997498</v>
+        <v>0.23397163</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4132773876190186</v>
+        <v>0.3524193</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5471658706665039</v>
+        <v>0.12977856</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6569623713727825</v>
+        <v>0.4837061355476924</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.90048384666443</v>
+        <v>13.38964998722076</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.515344977378845</v>
+        <v>1.515406</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.906829833984375</v>
+        <v>0.9068479</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3818318843841553</v>
+        <v>0.3818326</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.230993492013197</v>
+        <v>1.231018282778569</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>48.72940480709076</v>
+        <v>48.73037338256836</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4470748901367188</v>
+        <v>0.44702044</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3934698402881622</v>
+        <v>0.39343283</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3243231475353241</v>
+        <v>0.32430163</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.668636590485982</v>
+        <v>0.6685958729260273</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>17.58894175291061</v>
+        <v>17.58787333965302</v>
       </c>
     </row>
   </sheetData>
@@ -12693,19 +12693,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.808111189700239</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4943536064078694</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4153011710430879</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8989500485011606</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.4394738819784</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12723,19 +12723,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.808111189700239</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4943536064078694</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.4153011710430879</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8989500485011606</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.4394738819784</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7202761909187949</v>
+        <v>7.646456855611777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6432342740726111</v>
+        <v>2.591083041581253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4055545200144645</v>
+        <v>1.012504487991789</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8486908688791196</v>
+        <v>2.765222749727728</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>32.76914650250325</v>
+        <v>162.7997612927219</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.6764735836640506</v>
+        <v>7.24139937409218</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4567070392631716</v>
+        <v>2.554109150814572</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3693947002023509</v>
+        <v>0.9887954606846172</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.8224801418052904</v>
+        <v>2.690984833493526</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.99806716799528</v>
+        <v>168.4554692453213</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5181555975227713</v>
+        <v>0.2921767730180959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3396353456383959</v>
+        <v>0.3611102807765141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2932546803788203</v>
+        <v>0.2633836826156013</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.719830256048446</v>
+        <v>0.5405337852697979</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.64790904102474</v>
+        <v>18.18223163360054</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6752001814624679</v>
+        <v>0.3562537760154734</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4137450661064323</v>
+        <v>0.40591525965437</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.347349920165334</v>
+        <v>0.2815382475828899</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8217056537851422</v>
+        <v>0.5968699825049618</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.22796854926089</v>
+        <v>20.52617748957422</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13535,53 +13535,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.43346572</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.42081213</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.36124596</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.658381135227174</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>19.725501537323</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>1.375904083251953</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.7490541338920593</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.5599876046180725</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>1.172989379002194</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>32.11658895015717</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.8196814656257629</v>
+        <v>0.5297626</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4301176071166992</v>
+        <v>0.4814837</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3989855647087097</v>
+        <v>0.39699125</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9053626155446021</v>
+        <v>0.7278479413272217</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.86635679006577</v>
+        <v>21.53594195842743</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13597,53 +13597,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.36250892</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.46043825</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.19630408</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.602087138888818</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.8648208975792</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.380636990070343</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.3555442690849304</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2596303820610046</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.6169578511295103</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>15.90615659952164</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.395443320274353</v>
+        <v>0.38226017</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4137247800827026</v>
+        <v>0.46111953</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2758258581161499</v>
+        <v>0.19376372</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.628842842270112</v>
+        <v>0.6182719252555374</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.3577686548233</v>
+        <v>19.05484199523925</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.080305933952332</v>
+        <v>1.0850376</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.746746301651001</v>
+        <v>0.74898034</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5135473608970642</v>
+        <v>0.51501095</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.039377666660359</v>
+        <v>1.041651375976234</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.58497107028961</v>
+        <v>29.62827980518341</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.6307218670845032</v>
+        <v>0.63163793</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5380802750587463</v>
+        <v>0.53898793</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4155571460723877</v>
+        <v>0.41579667</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7941799966534685</v>
+        <v>0.7947565230119575</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>23.58664721250534</v>
+        <v>23.61985146999359</v>
       </c>
     </row>
   </sheetData>
@@ -13967,19 +13967,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14051,23 +14051,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02536946655075712</v>
+        <v>0.058272045754938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1289953459847047</v>
+        <v>0.1894321257209833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2298524518943416</v>
+        <v>0.6015107686243431</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1592779537499058</v>
+        <v>0.2413960350853717</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.41272209488118</v>
+        <v>33.36040385352955</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02614704937423791</v>
+        <v>0.0523057648429483</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1273971246902029</v>
+        <v>0.1784923692239993</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2305546469491553</v>
+        <v>0.5781621275875168</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1617004928076532</v>
+        <v>0.2287045361223698</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.61518835772389</v>
+        <v>31.73427162820709</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04335927590727806</v>
+        <v>0.05597925</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1660772860050201</v>
+        <v>0.18293212</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3731131851673126</v>
+        <v>0.6262498</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2082289026703019</v>
+        <v>0.2365993488189945</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.69653987884521</v>
+        <v>32.06869959831238</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0248798094689846</v>
+        <v>0.028662171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1413179785013199</v>
+        <v>0.1415768</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2016891986131668</v>
+        <v>0.1921212</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1577333492606576</v>
+        <v>0.1692990585172255</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.0327525138855</v>
+        <v>19.76561099290848</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05563845857977867</v>
+        <v>0.05560337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1777241080999374</v>
+        <v>0.17777996</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6713160872459412</v>
+        <v>0.67061216</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2358780587078388</v>
+        <v>0.2358036684838839</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.89361190795898</v>
+        <v>30.90744912624359</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15025,19 +15025,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15055,19 +15055,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15149,19 +15149,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0637280166488598</v>
+        <v>0.0677290390473982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2013284867517215</v>
+        <v>0.2091385868044314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6125720338185838</v>
+        <v>0.7527665614719842</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.252444086183178</v>
+        <v>0.2602480337051527</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.81281953161366</v>
+        <v>37.93907008774959</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15179,19 +15179,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.06368538874593119</v>
+        <v>0.0675905448250288</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2011464143052253</v>
+        <v>0.2088549057753801</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6134264306329226</v>
+        <v>0.7522514996766227</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2523596416742011</v>
+        <v>0.2599818163353522</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>34.7746426112075</v>
+        <v>37.89307768676532</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15727,19 +15727,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06393246858625869</v>
+        <v>0.0674329008815691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2023215040924541</v>
+        <v>0.2088630177250339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6222207091567631</v>
+        <v>0.7530095819601339</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2528487069103947</v>
+        <v>0.2596784567143935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>34.92991691559681</v>
+        <v>37.89204818517277</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15757,19 +15757,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.063746056658398</v>
+        <v>0.050085174970881</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.202074720994869</v>
+        <v>0.1779699485945135</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6205803880156072</v>
+        <v>0.6757412602615579</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2524798143582928</v>
+        <v>0.2237971737330055</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>34.90168406747733</v>
+        <v>33.39239437757563</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15867,23 +15867,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06196197494864464</v>
+        <v>0.07726168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1954890936613083</v>
+        <v>0.21464576</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7094605565071106</v>
+        <v>0.9765146</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2489216241081611</v>
+        <v>0.2779598511916651</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>33.15929472446442</v>
+        <v>36.91072762012482</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15897,23 +15897,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06288737058639526</v>
+        <v>0.06280316399999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1973975449800491</v>
+        <v>0.19395177</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7104089856147766</v>
+        <v>0.8136588</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2507735444308176</v>
+        <v>0.2506055947589535</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>33.43528807163239</v>
+        <v>34.98713672161102</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15929,23 +15929,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04086928442120552</v>
+        <v>0.049904753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1661033481359482</v>
+        <v>0.1785226</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3487473428249359</v>
+        <v>0.37671825</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2021615305175679</v>
+        <v>0.2233937163903832</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.19837915897369</v>
+        <v>28.67522537708282</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15959,23 +15959,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04098385944962502</v>
+        <v>0.045993477</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1683173179626465</v>
+        <v>0.16891442</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3521188795566559</v>
+        <v>0.3965342</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2024447071415428</v>
+        <v>0.2144608987813265</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>25.51944553852081</v>
+        <v>27.01593339443207</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16383,23 +16383,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06057648195148523</v>
+        <v>0.060780129966048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1927405706860295</v>
+        <v>0.1969440379449439</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4663006971677146</v>
+        <v>0.654300791849844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2461229000956336</v>
+        <v>0.2465362650119613</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.95884950860702</v>
+        <v>35.39596602436553</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16821,19 +16821,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05708941605315767</v>
+        <v>0.0535113934634177</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1903011759666142</v>
+        <v>0.1855216853860342</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.49430443567581</v>
+        <v>0.6181984061775098</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2389339156611252</v>
+        <v>0.2313252979321927</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.93584028500944</v>
+        <v>33.79011279489009</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16943,23 +16943,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05555358529090881</v>
+        <v>0.061254658</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1874591708183289</v>
+        <v>0.18146794</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5494385957717896</v>
+        <v>0.7607225</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2356980807959811</v>
+        <v>0.2474967834234739</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>31.13663494586945</v>
+        <v>32.08970427513123</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03739302232861519</v>
+        <v>0.037719052</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1686957180500031</v>
+        <v>0.15982424</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2462757378816605</v>
+        <v>0.2998383</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1933727548767281</v>
+        <v>0.194213934322324</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.24934750795364</v>
+        <v>23.85344654321671</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06046900525689125</v>
+        <v>0.060440026</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1935493797063828</v>
+        <v>0.19402745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7023099660873413</v>
+        <v>0.70015043</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2459044636782571</v>
+        <v>0.2458455332595235</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.52089130878448</v>
+        <v>34.61112380027771</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17409,19 +17409,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06561565677411951</v>
+        <v>0.0676756544393393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2052646640839024</v>
+        <v>0.2087326661037266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6072207710339054</v>
+        <v>0.7511877231243947</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2561555323902248</v>
+        <v>0.2601454486231488</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>35.56972534234276</v>
+        <v>37.87859921023231</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17839,23 +17839,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0742818899485907</v>
+        <v>0.0594640605933791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2228793048104842</v>
+        <v>0.1921703050480972</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6057930076902629</v>
+        <v>0.705646856000583</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2725470417168213</v>
+        <v>0.2438525386240198</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.02417634961298</v>
+        <v>35.85180823893635</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17969,19 +17969,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06227657198905945</v>
+        <v>0.11177346</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1931328922510147</v>
+        <v>0.25157475</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7084743976593018</v>
+        <v>1.162855</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2495527439020847</v>
+        <v>0.3343253820807498</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.80422389507294</v>
+        <v>40.12241363525391</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18009,23 +18009,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04904093220829964</v>
+        <v>0.052262872</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1815418004989624</v>
+        <v>0.18339767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3408052921295166</v>
+        <v>0.39839268</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2214518733456541</v>
+        <v>0.22861074440521</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.75580883026123</v>
+        <v>29.29104268550873</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07778804004192352</v>
+        <v>0.077829465</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.212459072470665</v>
+        <v>0.21251218</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.979556143283844</v>
+        <v>0.9798537</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2789050735320595</v>
+        <v>0.2789793276750849</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>36.5378350019455</v>
+        <v>36.54294908046722</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2430469984732183</v>
+        <v>0.3832213171763037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4032224323366004</v>
+        <v>0.4896177660849964</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1643346364862022</v>
+        <v>0.2848285090811593</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4929979700497948</v>
+        <v>0.6190487195498459</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.00940142304688</v>
+        <v>21.66334740647232</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4477006866062762</v>
+        <v>0.4867593841466273</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4701975856184271</v>
+        <v>0.5450430786002904</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1766949606806289</v>
+        <v>0.2237882213822982</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6691043914115915</v>
+        <v>0.6976814345721314</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.21138085684571</v>
+        <v>24.05111513896887</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18987,23 +18987,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1605794876813889</v>
+        <v>0.4515899</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2563789486885071</v>
+        <v>0.38455424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1248184069991112</v>
+        <v>0.30398414</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4007237049157297</v>
+        <v>0.6720043989261768</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.24753302335739</v>
+        <v>16.71996563673019</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19031,23 +19031,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05479566007852554</v>
+        <v>0.21315949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1992404460906982</v>
+        <v>0.36539704</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07007377594709396</v>
+        <v>0.12498025</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.234084728417993</v>
+        <v>0.4616919824422129</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.08211287856102</v>
+        <v>13.8324648141861</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4588562846183777</v>
+        <v>0.45879605</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5721238851547241</v>
+        <v>0.57205945</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3200378715991974</v>
+        <v>0.32001016</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6773893154002192</v>
+        <v>0.6773448561293074</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.19033551216125</v>
+        <v>25.18744468688965</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3087297696002327</v>
+        <v>0.4114406111542045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4407114602067297</v>
+        <v>0.5068253998776809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2248796170086048</v>
+        <v>0.3125068098186675</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5556345647997727</v>
+        <v>0.6414363656312327</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.69662517577272</v>
+        <v>22.76625089385285</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19883,23 +19883,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5096170074984577</v>
+        <v>0.5925092011569912</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5019804453258288</v>
+        <v>0.6384247408393743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2018782126113309</v>
+        <v>0.308650679732303</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7138746441066931</v>
+        <v>0.7697461926875581</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>24.45093835175297</v>
+        <v>29.91301688803675</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2810788452625275</v>
+        <v>0.6566632</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3257980644702911</v>
+        <v>0.54801434</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2138103246688843</v>
+        <v>0.40837348</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5301686950985766</v>
+        <v>0.8103475670337902</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.90871703624725</v>
+        <v>22.45951443910599</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06899531930685043</v>
+        <v>0.15190658</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2293864637613297</v>
+        <v>0.30645835</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08362893760204315</v>
+        <v>0.11173003</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2626696010330286</v>
+        <v>0.3897519464132217</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.327148109674454</v>
+        <v>11.6038978099823</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3639403581619263</v>
+        <v>0.36394405</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3972161114215851</v>
+        <v>0.3972987</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2973834872245789</v>
+        <v>0.29739556</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6032746954430679</v>
+        <v>0.6032777582920676</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.10429692268372</v>
+        <v>18.107670545578</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3745902052376652</v>
+        <v>0.4615309895717855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4747498682002403</v>
+        <v>0.5327994234948541</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2808915309624448</v>
+        <v>0.3670109248694607</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6120377482130209</v>
+        <v>0.6793607212459266</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.91541012115851</v>
+        <v>24.5318223250942</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8449768924309784</v>
+        <v>1.838117062255007</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7982986733160908</v>
+        <v>1.199052318009312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3499796021471778</v>
+        <v>0.5569058950414159</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9192262465960045</v>
+        <v>1.355771758908928</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>38.04608229294269</v>
+        <v>62.21497065444721</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3679282963275909</v>
+        <v>0.55021054</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3708958625793457</v>
+        <v>0.44269827</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2771440446376801</v>
+        <v>0.4069258</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6065709326431583</v>
+        <v>0.7417617781513656</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.50318056344986</v>
+        <v>20.0459823012352</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21075,23 +21075,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1595311760902405</v>
+        <v>0.41892186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2987910211086273</v>
+        <v>0.56677765</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1301229000091553</v>
+        <v>0.21977258</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3994135401939204</v>
+        <v>0.6472417307871</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.50548458099365</v>
+        <v>23.42163473367691</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4521939754486084</v>
+        <v>0.4521941</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5040480494499207</v>
+        <v>0.5040567</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3679244816303253</v>
+        <v>0.36792472</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6724536976243111</v>
+        <v>0.67245378626185</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.28241914510727</v>
+        <v>23.28279316425323</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21445,19 +21445,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21475,19 +21475,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04498262517619675</v>
+        <v>0.060833822766724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1663842819618105</v>
+        <v>0.1972598035198204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4387587910397633</v>
+        <v>0.65669034787747</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2120910775497092</v>
+        <v>0.2466451352991256</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.1873630276819</v>
+        <v>35.43478619013263</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04529062390494942</v>
+        <v>0.0607011894670931</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1668087025047905</v>
+        <v>0.196967326827684</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4394200363341286</v>
+        <v>0.6560856503131398</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2128159390293627</v>
+        <v>0.246376113832273</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.25359808092965</v>
+        <v>35.38738384498456</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22147,19 +22147,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05212100598891214</v>
+        <v>0.0605482152374781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1840919190560389</v>
+        <v>0.196802842292038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4952628507589047</v>
+        <v>0.6577627075443189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2283002540272615</v>
+        <v>0.2460654694130775</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>30.93915709824838</v>
+        <v>35.34839670695711</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22177,19 +22177,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05161852308464918</v>
+        <v>0.0404751779404388</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1831127872821404</v>
+        <v>0.1588863566985226</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4932135413664528</v>
+        <v>0.5531921608082764</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2271971018403386</v>
+        <v>0.2011844376199084</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>30.79369421920884</v>
+        <v>29.8056395054002</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22287,23 +22287,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04779914766550064</v>
+        <v>0.058811914</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1686143577098846</v>
+        <v>0.18650125</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5442317724227905</v>
+        <v>0.7558289</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2186301618384358</v>
+        <v>0.2425116784316764</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.20860743522644</v>
+        <v>32.91983306407928</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22317,23 +22317,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05251147598028183</v>
+        <v>0.05628835</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1824909299612045</v>
+        <v>0.18672729</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5580391883850098</v>
+        <v>0.6635669</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.229153826021478</v>
+        <v>0.2372516604230759</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.21534085273743</v>
+        <v>33.59745144844055</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22349,23 +22349,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02624362520873547</v>
+        <v>0.04028227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1387485265731812</v>
+        <v>0.16876331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.216256245970726</v>
+        <v>0.31422526</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1619988432327079</v>
+        <v>0.2007044389205813</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.83403712511063</v>
+        <v>25.01607239246368</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22379,23 +22379,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01669033616781235</v>
+        <v>0.038386393</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.105484813451767</v>
+        <v>0.16074605</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1514428108930588</v>
+        <v>0.3038624</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1291910839331118</v>
+        <v>0.1959244582446047</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.95328545570374</v>
+        <v>23.95784854888916</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2412779886315264</v>
+        <v>0.3823919863571255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4013120152141934</v>
+        <v>0.4864719792116769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1634010458523087</v>
+        <v>0.285681086761691</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4912005584601126</v>
+        <v>0.6183785138223397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.92363721809781</v>
+        <v>21.50714049571043</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2413292993498781</v>
+        <v>0.3823919863571255</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4013684726077111</v>
+        <v>0.4864719792116769</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.16342177234718</v>
+        <v>0.285681086761691</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4912527855899426</v>
+        <v>0.6183785138223397</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.92590900113033</v>
+        <v>21.50714049571043</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23457,19 +23457,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04982518368577771</v>
+        <v>0.6163167991028398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1763575984615251</v>
+        <v>0.581714675136385</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07062406243941582</v>
+        <v>0.3256962888562115</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.22321555430968</v>
+        <v>0.7850584685887031</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.999639011789824</v>
+        <v>26.40446585853952</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23487,19 +23487,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05514362045318578</v>
+        <v>0.6163167991028398</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1825278557396358</v>
+        <v>0.581714675136385</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.07403069327777476</v>
+        <v>0.3256962888562115</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2348267881933102</v>
+        <v>0.7850584685887031</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>7.281318783033394</v>
+        <v>26.40446585853952</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1504710167646408</v>
+        <v>0.94244194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.242390513420105</v>
+        <v>0.77752477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1197408810257912</v>
+        <v>0.48079854</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3879059380373557</v>
+        <v>0.9707944892239641</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.730903804302216</v>
+        <v>28.6714106798172</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1587589681148529</v>
+        <v>0.52462053</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.256692111492157</v>
+        <v>0.4576606</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1246501803398132</v>
+        <v>0.33723944</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3984456902952432</v>
+        <v>0.7243069328603047</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.2607749402523</v>
+        <v>19.14163529872894</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23659,23 +23659,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04197578877210617</v>
+        <v>0.13809493</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1832741647958755</v>
+        <v>0.29590416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06498297303915024</v>
+        <v>0.10058476</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2048799374563214</v>
+        <v>0.3716112644160516</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.496758759021759</v>
+        <v>10.88603585958481</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23689,23 +23689,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05628522485494614</v>
+        <v>0.18760681</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2084512710571289</v>
+        <v>0.3334729</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07456432282924652</v>
+        <v>0.11328679</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2372450734050048</v>
+        <v>0.4331360196559938</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.388041168451309</v>
+        <v>12.48735636472702</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.369821368873765</v>
+        <v>0.4579098528463206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.471291591671966</v>
+        <v>0.5310872819461315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2801640429115404</v>
+        <v>0.3668608311418908</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6081294014219055</v>
+        <v>0.6766903670411754</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.75780447667754</v>
+        <v>24.45060673776825</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3697838255679851</v>
+        <v>0.4579098528463206</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4712838879533359</v>
+        <v>0.5310872819461315</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2801605055929167</v>
+        <v>0.3668608311418908</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6080985327790103</v>
+        <v>0.6766903670411754</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.75751128083969</v>
+        <v>24.45060673776825</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2274567910782083</v>
+        <v>0.5451106374953132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3308859742486649</v>
+        <v>0.5343684074216896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2101287771409261</v>
+        <v>0.376002727556102</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4769243033000188</v>
+        <v>0.7383160823761821</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>15.24628342705663</v>
+        <v>24.96578790184595</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.2326627808264381</v>
+        <v>0.5451106374953132</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3411129747588755</v>
+        <v>0.5343684074216896</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1953398050935196</v>
+        <v>0.376002727556102</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4823513043689611</v>
+        <v>0.7383160823761821</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>16.19391942637874</v>
+        <v>24.96578790184595</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3323264420032501</v>
+        <v>1.8887423</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3257058560848236</v>
+        <v>1.212696</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2590607404708862</v>
+        <v>0.7839236000000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5764776162204827</v>
+        <v>1.37431522137031</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.88155871629715</v>
+        <v>41.6755348443985</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24938,23 +24938,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3424760401248932</v>
+        <v>0.7367774</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3407736718654633</v>
+        <v>0.5782829</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.264064759016037</v>
+        <v>0.4792979</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.585214524875189</v>
+        <v>0.8583573992296664</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>15.44420272111893</v>
+        <v>24.23919290304184</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24970,23 +24970,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1319898813962936</v>
+        <v>0.37474617</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2600947916507721</v>
+        <v>0.5382464</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1145448461174965</v>
+        <v>0.21133117</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3633041169547816</v>
+        <v>0.612165152242615</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.12308597564697</v>
+        <v>22.05318659543991</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25000,23 +25000,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1428225785493851</v>
+        <v>0.48827192</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2731938064098358</v>
+        <v>0.64474803</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1197400912642479</v>
+        <v>0.24754953</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3779187459618603</v>
+        <v>0.6987645682725282</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.5984203517437</v>
+        <v>26.83973014354705</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3091441593451917</v>
+        <v>0.4070907941835557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4387869205438372</v>
+        <v>0.5024702277237331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2272397852667329</v>
+        <v>0.3124093913499045</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5560073374922239</v>
+        <v>0.6380366715037277</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.56598022614222</v>
+        <v>22.56327425644376</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3090236082782473</v>
+        <v>0.4070907941835557</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4387664406753416</v>
+        <v>0.5024702277237331</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2271983807772823</v>
+        <v>0.3124093913499045</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5558989191195171</v>
+        <v>0.6380366715037277</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.56544743932298</v>
+        <v>22.56327425644376</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26075,23 +26075,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1378313647316607</v>
+        <v>0.5631349561412093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2382578672145039</v>
+        <v>0.5267485061071299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1480181106568789</v>
+        <v>0.3313345844789916</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3712564675957319</v>
+        <v>0.7504231847039438</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>10.96561344995355</v>
+        <v>24.24468323435756</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26105,23 +26105,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1627304111003115</v>
+        <v>0.5631349561412093</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2664829760174411</v>
+        <v>0.5267485061071299</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1610694570878625</v>
+        <v>0.3313345844789916</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4033985759770497</v>
+        <v>0.7504231847039438</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>12.14660284098473</v>
+        <v>24.24468323435756</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26219,53 +26219,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.9384361</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7625991</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5049017</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.968729111230894</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>28.82809042930603</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.2732134461402893</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.3105986714363098</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.208374097943306</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.5226982362131035</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>13.35660964250565</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.2660748660564423</v>
+        <v>1.602724</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3136107623577118</v>
+        <v>1.1150144</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.206547349691391</v>
+        <v>0.6643847000000001</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5158244527515561</v>
+        <v>1.26598734437122</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.49478214979172</v>
+        <v>38.35053145885468</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06304270774126053</v>
+        <v>0.17661463</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2163998782634735</v>
+        <v>0.32417154</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07958726584911346</v>
+        <v>0.11756567</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2510830694038539</v>
+        <v>0.4202554309489507</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.86106288433075</v>
+        <v>12.33377829194069</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26311,23 +26311,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.06206097081303596</v>
+        <v>0.18207513</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2125710844993591</v>
+        <v>0.33041435</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07871405035257339</v>
+        <v>0.11969915</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2491203942133923</v>
+        <v>0.4267026223955641</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.722365856170654</v>
+        <v>12.58137226104736</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26686,53 +26686,53 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2666676382567058</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4562188499143044</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.8830336204020959</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5163987202314756</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>106.7681549075552</v>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
           <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
-      </c>
-      <c r="F9" s="18" t="n">
-        <v>0.3489182037358353</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
-        </is>
-      </c>
       <c r="L9" s="8" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05243791205944026</v>
+        <v>0.0580050537036382</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1801270936028938</v>
+        <v>0.1892028166286784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3424610278551638</v>
+        <v>0.6001512656676724</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2289932576724482</v>
+        <v>0.2408423835283945</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.10828176449768</v>
+        <v>33.3352941395839</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05244061884963863</v>
+        <v>0.0579874528296056</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1801410431794207</v>
+        <v>0.1891099247565727</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3424675415874282</v>
+        <v>0.6002267955370054</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2289991677924587</v>
+        <v>0.240805840522205</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.11067453546853</v>
+        <v>33.31799904612693</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27388,23 +27388,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0518938025516044</v>
+        <v>0.1264995036022008</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1811032125607424</v>
+        <v>0.2864844319943808</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3343177626604485</v>
+        <v>0.4192060689679994</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2278021127022407</v>
+        <v>0.3556676870369317</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.37041589990471</v>
+        <v>53.20366443116266</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27418,23 +27418,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05332242868306164</v>
+        <v>0.0880600560963159</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1816258364521582</v>
+        <v>0.2416895268366306</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3453322876362733</v>
+        <v>0.635054140000833</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.23091649720854</v>
+        <v>0.296749146749095</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.3402665347294</v>
+        <v>43.79499557545139</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27532,23 +27532,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04161655530333519</v>
+        <v>0.056701027</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1604987680912018</v>
+        <v>0.17308626</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3718325197696686</v>
+        <v>0.72630537</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.204001361033046</v>
+        <v>0.2381197741828663</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.8503565788269</v>
+        <v>29.89441454410553</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27566,19 +27566,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0434647724032402</v>
+        <v>0.06286743</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.165627732872963</v>
+        <v>0.19062579</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3748929500579834</v>
+        <v>0.7727861</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2084820673421103</v>
+        <v>0.2507337887735075</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.61026811599731</v>
+        <v>32.13041424751282</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27594,23 +27594,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02218262478709221</v>
+        <v>0.035141747</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1278648525476456</v>
+        <v>0.17603028</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1841887533664703</v>
+        <v>0.25216705</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1489383254474556</v>
+        <v>0.1874613225304571</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.28059202432632</v>
+        <v>24.42275583744049</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27624,23 +27624,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02916644886136055</v>
+        <v>0.039713375</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1511423587799072</v>
+        <v>0.16939571</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2251532077789307</v>
+        <v>0.22956571</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1707818750961604</v>
+        <v>0.1992821499040159</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.23237943649292</v>
+        <v>24.00103807449341</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0733383446931839</v>
+        <v>0.07398533</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2111957371234894</v>
+        <v>0.21192025</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8326035141944885</v>
+        <v>0.8360219</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2708105328327979</v>
+        <v>0.2720024462398803</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.43302810192108</v>
+        <v>34.51028764247894</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07513955980539322</v>
+        <v>0.07222890999999999</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1998598277568817</v>
+        <v>0.19413318</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8432377576828003</v>
+        <v>0.82896465</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2741159605083097</v>
+        <v>0.2687543646879402</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>33.01509022712708</v>
+        <v>32.38746225833893</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06316102908615802</v>
+        <v>0.066669596423752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2004626074277202</v>
+        <v>0.2076696836271696</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.609058959195432</v>
+        <v>0.747550692070431</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2513185808613402</v>
+        <v>0.2582045631350307</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.68710238837169</v>
+        <v>37.72792167509422</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0631356382532131</v>
+        <v>0.06668166195421719</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2004086040533856</v>
+        <v>0.2077154832418275</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6088736089791105</v>
+        <v>0.7475222615069185</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2512680605513026</v>
+        <v>0.2582279263639339</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>34.67915800431527</v>
+        <v>37.73600326830584</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28702,53 +28702,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0917701550980916</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2600395474980223</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.7732044807827602</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.3029358927200467</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>47.93266118907638</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.06436263094966592</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.2024447274118647</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.6147466141784622</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2536979127814534</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>34.98042106850195</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.06436263094966592</v>
+        <v>0.06660496232826341</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2024447274118647</v>
+        <v>0.2040066040153786</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6147466141784622</v>
+        <v>0.76529790710172</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2536979127814534</v>
+        <v>0.2580793721479177</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>34.98042106850195</v>
+        <v>36.94562274145621</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28846,23 +28846,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06076821684837341</v>
+        <v>0.07126888000000001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1937241405248642</v>
+        <v>0.22115959</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7065266370773315</v>
+        <v>0.7579619</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2465121028435996</v>
+        <v>0.2669623173355426</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.91733264923096</v>
+        <v>40.35545289516449</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28880,19 +28880,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05953400209546089</v>
+        <v>0.08334948</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1891131103038788</v>
+        <v>0.23464274</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6963270306587219</v>
+        <v>0.7981709</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2439959058989738</v>
+        <v>0.2887031022088501</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>32.29946494102478</v>
+        <v>42.25906431674957</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28908,23 +28908,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04153545200824738</v>
+        <v>0.054124385</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1676145046949387</v>
+        <v>0.18555845</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3535294234752655</v>
+        <v>0.45220542</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2038024828314105</v>
+        <v>0.232646480993125</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.42597353458405</v>
+        <v>30.17959892749786</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28938,23 +28938,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04466009140014648</v>
+        <v>0.07004381</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1696834564208984</v>
+        <v>0.21476258</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3658082783222198</v>
+        <v>0.48243597</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2113293434432296</v>
+        <v>0.2646579107299329</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>25.6415456533432</v>
+        <v>33.41809511184692</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07759986817836761</v>
+        <v>0.07726556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2214254140853882</v>
+        <v>0.22075021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9529139995574951</v>
+        <v>0.95117867</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2785675289375408</v>
+        <v>0.2779668336816168</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>38.28812837600708</v>
+        <v>38.1943941116333</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1386463195085526</v>
+        <v>0.132313</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.294338196516037</v>
+        <v>0.2855563</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.243705153465271</v>
+        <v>1.220882</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3723524130559013</v>
+        <v>0.3637485370082208</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>44.57549154758453</v>
+        <v>43.78990828990936</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05647583250647753</v>
+        <v>0.0599535327790448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1889599991280345</v>
+        <v>0.1957625050816106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4916728426443628</v>
+        <v>0.6531635734589815</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2376464443379651</v>
+        <v>0.2448541050892242</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.72251891527469</v>
+        <v>35.2017158577033</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0564866539691606</v>
+        <v>0.0599491525368127</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1890048894648294</v>
+        <v>0.1958003103288211</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4918100429896764</v>
+        <v>0.6531555158665793</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2376692112351968</v>
+        <v>0.2448451603295698</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>31.72947986933249</v>
+        <v>35.20893902888878</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30014,23 +30014,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05700054659152098</v>
+        <v>0.05984812252834</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1898407677307632</v>
+        <v>0.2023831644406484</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4945756828900943</v>
+        <v>0.691311373007316</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2387478724334962</v>
+        <v>0.2446387592519632</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.85292193832749</v>
+        <v>36.09235819364801</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30044,23 +30044,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0556301550259614</v>
+        <v>0.0549737744042471</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1908059756340408</v>
+        <v>0.1786107387134806</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5416032907797917</v>
+        <v>0.5322299289550224</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.235860456681406</v>
+        <v>0.2344648681663143</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>31.93652788079907</v>
+        <v>33.58491788507887</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30158,23 +30158,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05165629461407661</v>
+        <v>0.11719128</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1789838820695877</v>
+        <v>0.25537473</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5567883253097534</v>
+        <v>1.1155705</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2272802116640967</v>
+        <v>0.3423321157069004</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.69845235347748</v>
+        <v>39.41670358181</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30188,23 +30188,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05187707021832466</v>
+        <v>0.1464891</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1796159744262695</v>
+        <v>0.30593714</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5542470812797546</v>
+        <v>1.1994385</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2277653841529144</v>
+        <v>0.3827389432342866</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.80480790138245</v>
+        <v>44.83699202537537</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30220,23 +30220,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0332779698073864</v>
+        <v>0.03974031</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1587163656949997</v>
+        <v>0.16390155</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2550281882286072</v>
+        <v>0.30105576</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1824225035662717</v>
+        <v>0.199349715623636</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.49871492385864</v>
+        <v>24.21273589134216</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30250,23 +30250,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03081158921122551</v>
+        <v>0.034550328</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1557533144950867</v>
+        <v>0.16053975</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2513062953948975</v>
+        <v>0.28998497</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1755323024722957</v>
+        <v>0.1858771847421433</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>22.12649285793304</v>
+        <v>23.91939759254456</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1240057721734047</v>
+        <v>0.12401266</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2747237682342529</v>
+        <v>0.27473456</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.130713105201721</v>
+        <v>1.1307515</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.352144533073289</v>
+        <v>0.352154307811045</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>41.75705015659332</v>
+        <v>41.75805747509003</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.08683039247989655</v>
+        <v>0.08679764</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2258554995059967</v>
+        <v>0.22590652</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9627145528793335</v>
+        <v>0.9619858</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2946699721381474</v>
+        <v>0.2946143915826117</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>37.01745867729187</v>
+        <v>37.03367710113525</v>
       </c>
     </row>
   </sheetData>
